--- a/project-2/results/spreadsheet/MPI_OMP.xlsx
+++ b/project-2/results/spreadsheet/MPI_OMP.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="7" r:id="rId1"/>
     <sheet name="Data2" sheetId="9" r:id="rId2"/>
     <sheet name="1core" sheetId="1" r:id="rId3"/>
-    <sheet name="2cores" sheetId="2" r:id="rId4"/>
+    <sheet name="2cores" sheetId="10" r:id="rId4"/>
     <sheet name="4core" sheetId="3" r:id="rId5"/>
     <sheet name="8cores" sheetId="4" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>Processes</t>
   </si>
@@ -50,12 +50,27 @@
   <si>
     <t>OPC4</t>
   </si>
+  <si>
+    <t>primes</t>
+  </si>
+  <si>
+    <t>cpu/pc</t>
+  </si>
+  <si>
+    <t>processes</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>time (s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,8 +86,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,8 +108,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -94,11 +135,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -107,12 +228,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,6 +285,2748 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI &amp; OMP on 4 computers (1 core enabled)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="230"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.8998272884283247E-2"/>
+          <c:y val="9.6801146843076447E-2"/>
+          <c:w val="0.94112262521588952"/>
+          <c:h val="0.83386648276413156"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1core'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1core'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1core'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.2750099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15975500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42675200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93579699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9939800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1812199999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6181699999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.671800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1core'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1core'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1core'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.6443000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13488900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33844400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76340300000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6402699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3520699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8907800000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.101800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1core'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1core'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1core'!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.47262E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13200899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32947100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.732541</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5641700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2227100000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6719299999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.6554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1core'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1core'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1core'!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7551899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.133297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32998100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74241400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.57378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4840599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9672200000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.757099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1core'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1core'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1core'!$J$3:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.4544E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35420099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78282300000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6392199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4351099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0686799999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.427899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1core'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1core'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1core'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.3152099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13494900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35713899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6221000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3472200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8452299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.0275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1core'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1core'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1core'!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.1978799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.137401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35744199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77409700000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.63557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.50508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8789600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.0633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1core'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1core'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1core'!$M$3:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.3674000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18426500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43269800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87335200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.92378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7547899999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7215499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.466900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="63123968"/>
+        <c:axId val="93674816"/>
+        <c:axId val="41621376"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="63123968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Exp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.19105245264031118"/>
+              <c:y val="0.84445397927361687"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93674816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93674816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.94644404553057815"/>
+              <c:y val="0.32602623303653283"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63123968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="41621376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.68398270164415975"/>
+              <c:y val="0.87203067397007572"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93674816"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI &amp; OMP on 4 computers (1 core enabled) exp 32</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1core'!$F$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.671800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.101800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.6554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.757099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.427899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.0275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.0633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.466900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="221064576"/>
+        <c:axId val="221064000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="221064576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221064000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="221064000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="18"/>
+          <c:min val="13"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221064576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI &amp; OPM on 4 computers (2 cores enabled) exp 32</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.6516516516516516E-2"/>
+          <c:y val="0.10695444122116313"/>
+          <c:w val="0.9713363363363362"/>
+          <c:h val="0.81685846111341343"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2cores'!$P$3:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>43.316299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.931100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.479700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.745100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.517899999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.595199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.7346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2cores'!$Q$3:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>30.768000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.2806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.175999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.341699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.702400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.366299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.615000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2cores'!$R$3:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>27.2484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.740300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.547799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.303599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.835699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.294899999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130.273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2cores'!$S$3:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22.595500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.242999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.724699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.950900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.6906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.856400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.154200000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136.78299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2cores'!$T$3:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22.2148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.2196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.096699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.6175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.5733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.6235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.247799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.57499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2cores'!$U$3:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18.379799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.758700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.388400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.9435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.916699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.429200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144.839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2cores'!$V$3:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>21.419899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.596699999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.1496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.956700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.111499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.672699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.323500000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>157.44800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts/>
+        <c:axId val="61481472"/>
+        <c:axId val="93669056"/>
+        <c:axId val="230401280"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="61481472"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.11502199049443144"/>
+              <c:y val="0.78073369249896385"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93669056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93669056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.94491073750916277"/>
+              <c:y val="0.33638966708108853"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61481472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="230401280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.63789387813009857"/>
+              <c:y val="0.87617228899019195"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93669056"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI &amp; OPM on 4 computers (2 cores enabled) exp 32</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8086826984464786E-2"/>
+          <c:y val="0.1182368932915274"/>
+          <c:w val="0.80538920810574355"/>
+          <c:h val="0.73805633358431355"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cores'!$P$3:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>43.316299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.931100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.479700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.745100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.517899999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.595199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.7346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cores'!$Q$3:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>30.768000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.2806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.175999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.341699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.702400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.366299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.615000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cores'!$R$3:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>27.2484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.740300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.547799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.303599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.835699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.294899999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130.273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cores'!$S$3:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22.595500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.242999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.724699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.950900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.6906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.856400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.154200000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136.78299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cores'!$T$3:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22.2148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.2196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.096699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.6175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.5733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.6235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.247799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.57499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cores'!$U$3:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18.379799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.758700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.388400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.9435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.916699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.429200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144.839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2cores'!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2cores'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2cores'!$V$3:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>21.419899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.596699999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.1496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.956700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.111499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.672699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.323500000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>157.44800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="227652672"/>
+        <c:axId val="227652096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="227652672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="227652096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="227652096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="227652672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.92481981981981987"/>
+          <c:y val="0.36567555673461427"/>
+          <c:w val="5.2657657657657661E-2"/>
+          <c:h val="0.35568775468165081"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.89189</cdr:x>
+      <cdr:y>0.30664</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99887</cdr:x>
+      <cdr:y>0.36776</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="CaixaDeTexto 4"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7543800" y="1385889"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>Processes</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1569"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:F515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,14 +4639,14 @@
       </c>
     </row>
     <row r="67" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -10707,14 +13609,14 @@
       </c>
     </row>
     <row r="516" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="5" t="s">
+      <c r="A516" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B516" s="5"/>
-      <c r="C516" s="5"/>
-      <c r="D516" s="5"/>
-      <c r="E516" s="5"/>
-      <c r="F516" s="5"/>
+      <c r="B516" s="4"/>
+      <c r="C516" s="4"/>
+      <c r="D516" s="4"/>
+      <c r="E516" s="4"/>
+      <c r="F516" s="4"/>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
@@ -23177,14 +26079,14 @@
       </c>
     </row>
     <row r="1140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1140" s="4" t="s">
+      <c r="A1140" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1140" s="4"/>
-      <c r="C1140" s="4"/>
-      <c r="D1140" s="4"/>
-      <c r="E1140" s="4"/>
-      <c r="F1140" s="4"/>
+      <c r="B1140" s="5"/>
+      <c r="C1140" s="5"/>
+      <c r="D1140" s="5"/>
+      <c r="E1140" s="5"/>
+      <c r="F1140" s="5"/>
     </row>
     <row r="1141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1141">
@@ -31781,7 +34683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -33359,25 +36261,3041 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>33554432</v>
+      </c>
+      <c r="B3">
+        <v>2063689</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>25</v>
+      </c>
+      <c r="F3" s="16">
+        <v>4.2750099999999999E-2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2.6443000000000001E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2.47262E-2</v>
+      </c>
+      <c r="I3" s="19">
+        <v>1.7551899999999999E-2</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2.4544E-2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>3.3152099999999997E-2</v>
+      </c>
+      <c r="L3" s="8">
+        <v>4.1978799999999997E-2</v>
+      </c>
+      <c r="M3" s="8">
+        <v>3.3674000000000003E-2</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>67108864</v>
+      </c>
+      <c r="B4">
+        <v>3957809</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>26</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.15975500000000001</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.13488900000000001</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.13200899999999999</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.133297</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.14138999999999999</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.13494900000000001</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.137401</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.18426500000000001</v>
+      </c>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>134217728</v>
+      </c>
+      <c r="B5">
+        <v>7603553</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>27</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.42675200000000002</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.33844400000000002</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.32947100000000001</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.32998100000000002</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.35420099999999999</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.35713899999999998</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.35744199999999998</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.43269800000000003</v>
+      </c>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>268435456</v>
+      </c>
+      <c r="B6">
+        <v>14630843</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>28</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.93579699999999999</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.76340300000000005</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.732541</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.74241400000000002</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.78282300000000005</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0.77409700000000004</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0.87335200000000002</v>
+      </c>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>536870912</v>
+      </c>
+      <c r="B7">
+        <v>28192750</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>29</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1.9939800000000001</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1.6402699999999999</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1.5641700000000001</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1.57378</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1.6392199999999999</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1.6221000000000001</v>
+      </c>
+      <c r="L7" s="10">
+        <v>1.63557</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1.92378</v>
+      </c>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1073741824</v>
+      </c>
+      <c r="B8">
+        <v>54400028</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>30</v>
+      </c>
+      <c r="F8" s="15">
+        <v>4.1812199999999997</v>
+      </c>
+      <c r="G8" s="10">
+        <v>3.3520699999999999</v>
+      </c>
+      <c r="H8" s="18">
+        <v>3.2227100000000002</v>
+      </c>
+      <c r="I8" s="10">
+        <v>3.4840599999999999</v>
+      </c>
+      <c r="J8" s="10">
+        <v>3.4351099999999999</v>
+      </c>
+      <c r="K8" s="10">
+        <v>3.3472200000000001</v>
+      </c>
+      <c r="L8" s="10">
+        <v>3.50508</v>
+      </c>
+      <c r="M8" s="10">
+        <v>3.7547899999999998</v>
+      </c>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2147483648</v>
+      </c>
+      <c r="B9">
+        <v>105097565</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>31</v>
+      </c>
+      <c r="F9" s="15">
+        <v>8.6181699999999992</v>
+      </c>
+      <c r="G9" s="10">
+        <v>6.8907800000000003</v>
+      </c>
+      <c r="H9" s="18">
+        <v>6.6719299999999997</v>
+      </c>
+      <c r="I9" s="10">
+        <v>6.9672200000000002</v>
+      </c>
+      <c r="J9" s="10">
+        <v>7.0686799999999996</v>
+      </c>
+      <c r="K9" s="10">
+        <v>6.8452299999999999</v>
+      </c>
+      <c r="L9" s="10">
+        <v>6.8789600000000002</v>
+      </c>
+      <c r="M9" s="10">
+        <v>7.7215499999999997</v>
+      </c>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4294967296</v>
+      </c>
+      <c r="B10">
+        <v>203280221</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6">
+        <v>32</v>
+      </c>
+      <c r="F10" s="14">
+        <v>17.671800000000001</v>
+      </c>
+      <c r="G10" s="12">
+        <v>14.101800000000001</v>
+      </c>
+      <c r="H10" s="17">
+        <v>13.6554</v>
+      </c>
+      <c r="I10" s="12">
+        <v>13.757099999999999</v>
+      </c>
+      <c r="J10" s="12">
+        <v>14.427899999999999</v>
+      </c>
+      <c r="K10" s="12">
+        <v>14.0275</v>
+      </c>
+      <c r="L10" s="12">
+        <v>14.0633</v>
+      </c>
+      <c r="M10" s="12">
+        <v>15.466900000000001</v>
+      </c>
+      <c r="N10" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="N3:N10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="AE28" sqref="AE28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2">
+        <v>4</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5</v>
+      </c>
+      <c r="T2" s="2">
+        <v>6</v>
+      </c>
+      <c r="U2" s="2">
+        <v>7</v>
+      </c>
+      <c r="V2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>33554432</v>
+      </c>
+      <c r="B3">
+        <v>2063689</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>25</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.190746</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.14100199999999999</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.112291</v>
+      </c>
+      <c r="H3" s="8">
+        <v>7.3021900000000001E-2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>7.5537900000000005E-2</v>
+      </c>
+      <c r="J3" s="19">
+        <v>6.9080100000000005E-2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>7.4059E-2</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3">
+        <v>32</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="23">
+        <v>43.316299999999998</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>30.768000000000001</v>
+      </c>
+      <c r="R3" s="26">
+        <v>27.2484</v>
+      </c>
+      <c r="S3" s="26">
+        <v>22.595500000000001</v>
+      </c>
+      <c r="T3" s="26">
+        <v>22.2148</v>
+      </c>
+      <c r="U3" s="19">
+        <v>18.379799999999999</v>
+      </c>
+      <c r="V3" s="27">
+        <v>21.419899999999998</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>67108864</v>
+      </c>
+      <c r="B4">
+        <v>3957809</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="6">
+        <v>26</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.46169199999999999</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.33049499999999998</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.30236499999999999</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.23829400000000001</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.25822499999999998</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0.162525</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.235456</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="22"/>
+      <c r="N4">
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="24">
+        <v>38.931100000000001</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>28.2806</v>
+      </c>
+      <c r="R4" s="28">
+        <v>27.740300000000001</v>
+      </c>
+      <c r="S4" s="28">
+        <v>23.242999999999999</v>
+      </c>
+      <c r="T4" s="28">
+        <v>21.2196</v>
+      </c>
+      <c r="U4" s="28">
+        <v>17.758700000000001</v>
+      </c>
+      <c r="V4" s="32">
+        <v>17.596699999999998</v>
+      </c>
+      <c r="W4" s="11"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>134217728</v>
+      </c>
+      <c r="B5">
+        <v>7603553</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="6">
+        <v>27</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.99231199999999997</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.75766900000000004</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.67681899999999995</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.56731299999999996</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.52714399999999995</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.43672699999999998</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0.40710099999999999</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="22"/>
+      <c r="N5">
+        <v>32</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="24">
+        <v>38.479700000000001</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>29.175999999999998</v>
+      </c>
+      <c r="R5" s="28">
+        <v>27.058</v>
+      </c>
+      <c r="S5" s="28">
+        <v>22.724699999999999</v>
+      </c>
+      <c r="T5" s="28">
+        <v>21.096699999999998</v>
+      </c>
+      <c r="U5" s="28">
+        <v>18.388400000000001</v>
+      </c>
+      <c r="V5" s="32">
+        <v>17.1496</v>
+      </c>
+      <c r="W5" s="11"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>268435456</v>
+      </c>
+      <c r="B6">
+        <v>14630843</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="6">
+        <v>28</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2.0694699999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1.59765</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1.4652700000000001</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1.2067600000000001</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1.1283300000000001</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.97577199999999997</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.96978900000000001</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="22"/>
+      <c r="N6">
+        <v>32</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="24">
+        <v>38.745100000000001</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>28.341699999999999</v>
+      </c>
+      <c r="R6" s="28">
+        <v>26.547799999999999</v>
+      </c>
+      <c r="S6" s="28">
+        <v>21.950900000000001</v>
+      </c>
+      <c r="T6" s="28">
+        <v>20.6175</v>
+      </c>
+      <c r="U6" s="28">
+        <v>17.9435</v>
+      </c>
+      <c r="V6" s="25">
+        <v>16.956700000000001</v>
+      </c>
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>536870912</v>
+      </c>
+      <c r="B7">
+        <v>28192750</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="6">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4.3251999999999997</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3.4097499999999998</v>
+      </c>
+      <c r="G7" s="10">
+        <v>3.1612800000000001</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2.5812599999999999</v>
+      </c>
+      <c r="I7" s="10">
+        <v>2.3578199999999998</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2.1465100000000001</v>
+      </c>
+      <c r="K7" s="18">
+        <v>2.1271100000000001</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="22"/>
+      <c r="N7">
+        <v>32</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7" s="24">
+        <v>39.517899999999997</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>28.702400000000001</v>
+      </c>
+      <c r="R7" s="28">
+        <v>27.303599999999999</v>
+      </c>
+      <c r="S7" s="28">
+        <v>22.6906</v>
+      </c>
+      <c r="T7" s="28">
+        <v>21.5733</v>
+      </c>
+      <c r="U7" s="28">
+        <v>18.916699999999999</v>
+      </c>
+      <c r="V7" s="32">
+        <v>18.111499999999999</v>
+      </c>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1073741824</v>
+      </c>
+      <c r="B8">
+        <v>54400028</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="6">
+        <v>30</v>
+      </c>
+      <c r="E8" s="15">
+        <v>9.0351700000000008</v>
+      </c>
+      <c r="F8" s="10">
+        <v>7.0403900000000004</v>
+      </c>
+      <c r="G8" s="10">
+        <v>7.3089300000000001</v>
+      </c>
+      <c r="H8" s="10">
+        <v>5.9146400000000003</v>
+      </c>
+      <c r="I8" s="10">
+        <v>4.9276799999999996</v>
+      </c>
+      <c r="J8" s="18">
+        <v>4.33432</v>
+      </c>
+      <c r="K8" s="10">
+        <v>4.9210900000000004</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="22"/>
+      <c r="N8">
+        <v>32</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8" s="24">
+        <v>39.595199999999998</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>29.366299999999999</v>
+      </c>
+      <c r="R8" s="28">
+        <v>30.835699999999999</v>
+      </c>
+      <c r="S8" s="28">
+        <v>25.856400000000001</v>
+      </c>
+      <c r="T8" s="28">
+        <v>25.6235</v>
+      </c>
+      <c r="U8" s="28">
+        <v>22.429200000000002</v>
+      </c>
+      <c r="V8" s="29">
+        <v>22.672699999999999</v>
+      </c>
+      <c r="W8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2147483648</v>
+      </c>
+      <c r="B9">
+        <v>105097565</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="6">
+        <v>31</v>
+      </c>
+      <c r="E9" s="15">
+        <v>19.288599999999999</v>
+      </c>
+      <c r="F9" s="10">
+        <v>14.451499999999999</v>
+      </c>
+      <c r="G9" s="10">
+        <v>13.1502</v>
+      </c>
+      <c r="H9" s="10">
+        <v>11.097300000000001</v>
+      </c>
+      <c r="I9" s="10">
+        <v>10.055999999999999</v>
+      </c>
+      <c r="J9" s="10">
+        <v>9.0885899999999999</v>
+      </c>
+      <c r="K9" s="18">
+        <v>8.4526299999999992</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="22"/>
+      <c r="N9">
+        <v>32</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9" s="24">
+        <v>48.7346</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>34.615000000000002</v>
+      </c>
+      <c r="R9" s="28">
+        <v>46.294899999999998</v>
+      </c>
+      <c r="S9" s="28">
+        <v>36.154200000000003</v>
+      </c>
+      <c r="T9" s="28">
+        <v>40.247799999999998</v>
+      </c>
+      <c r="U9" s="28">
+        <v>37.356000000000002</v>
+      </c>
+      <c r="V9" s="29">
+        <v>41.323500000000003</v>
+      </c>
+      <c r="W9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4294967296</v>
+      </c>
+      <c r="B10">
+        <v>203280221</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="6">
+        <v>32</v>
+      </c>
+      <c r="E10" s="14">
+        <v>43.316299999999998</v>
+      </c>
+      <c r="F10" s="12">
+        <v>30.768000000000001</v>
+      </c>
+      <c r="G10" s="12">
+        <v>27.2484</v>
+      </c>
+      <c r="H10" s="12">
+        <v>22.595500000000001</v>
+      </c>
+      <c r="I10" s="12">
+        <v>22.2148</v>
+      </c>
+      <c r="J10" s="17">
+        <v>18.379799999999999</v>
+      </c>
+      <c r="K10" s="12">
+        <v>21.419899999999998</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="22"/>
+      <c r="N10">
+        <v>32</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10" s="21">
+        <v>102.288</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>102.77</v>
+      </c>
+      <c r="R10" s="30">
+        <v>130.273</v>
+      </c>
+      <c r="S10" s="30">
+        <v>136.78299999999999</v>
+      </c>
+      <c r="T10" s="30">
+        <v>137.57499999999999</v>
+      </c>
+      <c r="U10" s="30">
+        <v>144.839</v>
+      </c>
+      <c r="V10" s="31">
+        <v>157.44800000000001</v>
+      </c>
+      <c r="W10" s="13"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>33554432</v>
+      </c>
+      <c r="B11">
+        <v>2063689</v>
+      </c>
+      <c r="C11" s="20">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>25</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.199682</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.121766</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.128607</v>
+      </c>
+      <c r="H11" s="8">
+        <v>7.8559199999999996E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>6.9545999999999997E-2</v>
+      </c>
+      <c r="J11" s="8">
+        <v>3.6978999999999998E-2</v>
+      </c>
+      <c r="K11" s="8">
+        <v>3.3222000000000002E-2</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>67108864</v>
+      </c>
+      <c r="B12">
+        <v>3957809</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="6">
+        <v>26</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.46946900000000003</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.31224000000000002</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.28120200000000001</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.23349400000000001</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.198711</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.17030400000000001</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.15229000000000001</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>134217728</v>
+      </c>
+      <c r="B13">
+        <v>7603553</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="6">
+        <v>27</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1.0358400000000001</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.70147300000000001</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.68784100000000004</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.55983099999999997</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.41017900000000002</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.39174799999999999</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>268435456</v>
+      </c>
+      <c r="B14">
+        <v>14630843</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="6">
+        <v>28</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2.0414099999999999</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1.4844299999999999</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.4758199999999999</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1.15645</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1.12097</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.97672999999999999</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.92686199999999996</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>536870912</v>
+      </c>
+      <c r="B15">
+        <v>28192750</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="6">
+        <v>29</v>
+      </c>
+      <c r="E15" s="15">
+        <v>4.6502699999999999</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3.2865199999999999</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2.95241</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2.55138</v>
+      </c>
+      <c r="I15" s="10">
+        <v>2.3313000000000001</v>
+      </c>
+      <c r="J15" s="10">
+        <v>2.0731600000000001</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1.92563</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1073741824</v>
+      </c>
+      <c r="B16">
+        <v>54400028</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="6">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15">
+        <v>9.0611099999999993</v>
+      </c>
+      <c r="F16" s="10">
+        <v>6.45573</v>
+      </c>
+      <c r="G16" s="10">
+        <v>6.2042999999999999</v>
+      </c>
+      <c r="H16" s="10">
+        <v>5.26722</v>
+      </c>
+      <c r="I16" s="10">
+        <v>4.9188400000000003</v>
+      </c>
+      <c r="J16" s="10">
+        <v>4.1978400000000002</v>
+      </c>
+      <c r="K16" s="10">
+        <v>4.0141799999999996</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2147483648</v>
+      </c>
+      <c r="B17">
+        <v>105097565</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="6">
+        <v>31</v>
+      </c>
+      <c r="E17" s="15">
+        <v>18.351400000000002</v>
+      </c>
+      <c r="F17" s="10">
+        <v>13.5794</v>
+      </c>
+      <c r="G17" s="10">
+        <v>13.115</v>
+      </c>
+      <c r="H17" s="10">
+        <v>10.3527</v>
+      </c>
+      <c r="I17" s="10">
+        <v>10.0563</v>
+      </c>
+      <c r="J17" s="10">
+        <v>8.8950200000000006</v>
+      </c>
+      <c r="K17" s="10">
+        <v>9.6514000000000006</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4294967296</v>
+      </c>
+      <c r="B18">
+        <v>203280221</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="6">
+        <v>32</v>
+      </c>
+      <c r="E18" s="14">
+        <v>38.931100000000001</v>
+      </c>
+      <c r="F18" s="12">
+        <v>28.2806</v>
+      </c>
+      <c r="G18" s="12">
+        <v>27.740300000000001</v>
+      </c>
+      <c r="H18" s="12">
+        <v>23.242999999999999</v>
+      </c>
+      <c r="I18" s="12">
+        <v>21.2196</v>
+      </c>
+      <c r="J18" s="12">
+        <v>17.758700000000001</v>
+      </c>
+      <c r="K18" s="12">
+        <v>17.596699999999998</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>33554432</v>
+      </c>
+      <c r="B19">
+        <v>2063689</v>
+      </c>
+      <c r="C19" s="20">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>25</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.21020900000000001</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.12987000000000001</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.13508100000000001</v>
+      </c>
+      <c r="H19" s="8">
+        <v>7.9215999999999995E-2</v>
+      </c>
+      <c r="I19" s="8">
+        <v>7.7635999999999997E-2</v>
+      </c>
+      <c r="J19" s="8">
+        <v>4.1156100000000001E-2</v>
+      </c>
+      <c r="K19" s="8">
+        <v>5.4217799999999997E-2</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>67108864</v>
+      </c>
+      <c r="B20">
+        <v>3957809</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="6">
+        <v>26</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.46143000000000001</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.32241399999999998</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.29618100000000003</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.23250899999999999</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.215591</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0.19791500000000001</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0.149759</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>134217728</v>
+      </c>
+      <c r="B21">
+        <v>7603553</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="6">
+        <v>27</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.997506</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.71226</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.69593499999999997</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.54777200000000004</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.52935500000000002</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0.459341</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0.41523599999999999</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="22"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>268435456</v>
+      </c>
+      <c r="B22">
+        <v>14630843</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="6">
+        <v>28</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2.09884</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1.5079400000000001</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1.50776</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1.24343</v>
+      </c>
+      <c r="I22" s="10">
+        <v>1.1561600000000001</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1.00448</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.94619600000000004</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>536870912</v>
+      </c>
+      <c r="B23">
+        <v>28192750</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="6">
+        <v>29</v>
+      </c>
+      <c r="E23" s="15">
+        <v>4.3217999999999996</v>
+      </c>
+      <c r="F23" s="10">
+        <v>3.1652499999999999</v>
+      </c>
+      <c r="G23" s="10">
+        <v>3.1129699999999998</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2.6013999999999999</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2.4119700000000002</v>
+      </c>
+      <c r="J23" s="10">
+        <v>2.1143200000000002</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1.9664200000000001</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1073741824</v>
+      </c>
+      <c r="B24">
+        <v>54400028</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="6">
+        <v>30</v>
+      </c>
+      <c r="E24" s="15">
+        <v>9.1139700000000001</v>
+      </c>
+      <c r="F24" s="10">
+        <v>6.8119699999999996</v>
+      </c>
+      <c r="G24" s="10">
+        <v>6.3855700000000004</v>
+      </c>
+      <c r="H24" s="10">
+        <v>5.3871799999999999</v>
+      </c>
+      <c r="I24" s="10">
+        <v>5.0491099999999998</v>
+      </c>
+      <c r="J24" s="10">
+        <v>4.3839300000000003</v>
+      </c>
+      <c r="K24" s="10">
+        <v>4.1007899999999999</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2147483648</v>
+      </c>
+      <c r="B25">
+        <v>105097565</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="6">
+        <v>31</v>
+      </c>
+      <c r="E25" s="15">
+        <v>18.7729</v>
+      </c>
+      <c r="F25" s="10">
+        <v>13.4693</v>
+      </c>
+      <c r="G25" s="10">
+        <v>13.1607</v>
+      </c>
+      <c r="H25" s="10">
+        <v>11.091799999999999</v>
+      </c>
+      <c r="I25" s="10">
+        <v>10.326499999999999</v>
+      </c>
+      <c r="J25" s="10">
+        <v>9.0055399999999999</v>
+      </c>
+      <c r="K25" s="10">
+        <v>8.4154699999999991</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="22"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4294967296</v>
+      </c>
+      <c r="B26">
+        <v>203280221</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="6">
+        <v>32</v>
+      </c>
+      <c r="E26" s="14">
+        <v>38.479700000000001</v>
+      </c>
+      <c r="F26" s="12">
+        <v>29.175999999999998</v>
+      </c>
+      <c r="G26" s="12">
+        <v>27.058</v>
+      </c>
+      <c r="H26" s="12">
+        <v>22.724699999999999</v>
+      </c>
+      <c r="I26" s="12">
+        <v>21.096699999999998</v>
+      </c>
+      <c r="J26" s="12">
+        <v>18.388400000000001</v>
+      </c>
+      <c r="K26" s="12">
+        <v>17.1496</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>33554432</v>
+      </c>
+      <c r="B27">
+        <v>2063689</v>
+      </c>
+      <c r="C27" s="20">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6">
+        <v>25</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.22983400000000001</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.106127</v>
+      </c>
+      <c r="G27" s="8">
+        <v>9.44831E-2</v>
+      </c>
+      <c r="H27" s="8">
+        <v>5.7655999999999999E-2</v>
+      </c>
+      <c r="I27" s="8">
+        <v>7.3430099999999998E-2</v>
+      </c>
+      <c r="J27" s="8">
+        <v>4.2900800000000003E-2</v>
+      </c>
+      <c r="K27" s="8">
+        <v>6.1710099999999997E-2</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>67108864</v>
+      </c>
+      <c r="B28">
+        <v>3957809</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="6">
+        <v>26</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.52655200000000002</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.32538499999999998</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.30712299999999998</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0.238651</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.21923899999999999</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0.14346100000000001</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.16083500000000001</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>134217728</v>
+      </c>
+      <c r="B29">
+        <v>7603553</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="6">
+        <v>27</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1.14375</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.70132300000000003</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.70321800000000001</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0.54971400000000004</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.51201600000000003</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0.43479200000000001</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0.40930699999999998</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="22"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>268435456</v>
+      </c>
+      <c r="B30">
+        <v>14630843</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="6">
+        <v>28</v>
+      </c>
+      <c r="E30" s="15">
+        <v>2.3742700000000001</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1.5345899999999999</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1.48437</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1.1915500000000001</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1.13642</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0.98562700000000003</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0.92854300000000001</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="22"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>536870912</v>
+      </c>
+      <c r="B31">
+        <v>28192750</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="6">
+        <v>29</v>
+      </c>
+      <c r="E31" s="15">
+        <v>5.0928100000000001</v>
+      </c>
+      <c r="F31" s="10">
+        <v>3.2690199999999998</v>
+      </c>
+      <c r="G31" s="10">
+        <v>3.0752100000000002</v>
+      </c>
+      <c r="H31" s="10">
+        <v>2.52678</v>
+      </c>
+      <c r="I31" s="10">
+        <v>2.3692199999999999</v>
+      </c>
+      <c r="J31" s="10">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1.95285</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="22"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1073741824</v>
+      </c>
+      <c r="B32">
+        <v>54400028</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="6">
+        <v>30</v>
+      </c>
+      <c r="E32" s="15">
+        <v>9.3310700000000004</v>
+      </c>
+      <c r="F32" s="10">
+        <v>6.67293</v>
+      </c>
+      <c r="G32" s="10">
+        <v>6.3860700000000001</v>
+      </c>
+      <c r="H32" s="10">
+        <v>5.1897700000000002</v>
+      </c>
+      <c r="I32" s="10">
+        <v>4.9255300000000002</v>
+      </c>
+      <c r="J32" s="10">
+        <v>4.3626399999999999</v>
+      </c>
+      <c r="K32" s="10">
+        <v>4.04765</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="22"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2147483648</v>
+      </c>
+      <c r="B33">
+        <v>105097565</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="6">
+        <v>31</v>
+      </c>
+      <c r="E33" s="15">
+        <v>18.886700000000001</v>
+      </c>
+      <c r="F33" s="10">
+        <v>13.902100000000001</v>
+      </c>
+      <c r="G33" s="10">
+        <v>13.2293</v>
+      </c>
+      <c r="H33" s="10">
+        <v>10.6891</v>
+      </c>
+      <c r="I33" s="10">
+        <v>10.088200000000001</v>
+      </c>
+      <c r="J33" s="10">
+        <v>8.8496100000000002</v>
+      </c>
+      <c r="K33" s="10">
+        <v>8.2740799999999997</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4294967296</v>
+      </c>
+      <c r="B34">
+        <v>203280221</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="6">
+        <v>32</v>
+      </c>
+      <c r="E34" s="14">
+        <v>38.745100000000001</v>
+      </c>
+      <c r="F34" s="12">
+        <v>28.341699999999999</v>
+      </c>
+      <c r="G34" s="12">
+        <v>26.547799999999999</v>
+      </c>
+      <c r="H34" s="12">
+        <v>21.950900000000001</v>
+      </c>
+      <c r="I34" s="12">
+        <v>20.6175</v>
+      </c>
+      <c r="J34" s="12">
+        <v>17.9435</v>
+      </c>
+      <c r="K34" s="12">
+        <v>16.956700000000001</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33554432</v>
+      </c>
+      <c r="B35">
+        <v>2063689</v>
+      </c>
+      <c r="C35" s="20">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6">
+        <v>25</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0.22101100000000001</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.12789</v>
+      </c>
+      <c r="G35" s="8">
+        <v>9.5912899999999995E-2</v>
+      </c>
+      <c r="H35" s="8">
+        <v>6.4879199999999998E-2</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.14127400000000001</v>
+      </c>
+      <c r="J35" s="8">
+        <v>8.8882199999999995E-2</v>
+      </c>
+      <c r="K35" s="8">
+        <v>8.8172899999999998E-2</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>67108864</v>
+      </c>
+      <c r="B36">
+        <v>3957809</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="6">
+        <v>26</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0.48815500000000001</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.31250299999999998</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.29342699999999999</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.21332499999999999</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.19123000000000001</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0.14419499999999999</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0.15773599999999999</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>134217728</v>
+      </c>
+      <c r="B37">
+        <v>7603553</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="6">
+        <v>27</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1.0201800000000001</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.84737399999999996</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.77196500000000001</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.571913</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.61759799999999998</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0.53082799999999997</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0.444631</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>268435456</v>
+      </c>
+      <c r="B38">
+        <v>14630843</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="6">
+        <v>28</v>
+      </c>
+      <c r="E38" s="15">
+        <v>2.18235</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1.5915299999999999</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1.6052599999999999</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1.35242</v>
+      </c>
+      <c r="I38" s="10">
+        <v>1.2262</v>
+      </c>
+      <c r="J38" s="10">
+        <v>1.0626800000000001</v>
+      </c>
+      <c r="K38" s="10">
+        <v>1.0539099999999999</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="22"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>536870912</v>
+      </c>
+      <c r="B39">
+        <v>28192750</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="6">
+        <v>29</v>
+      </c>
+      <c r="E39" s="15">
+        <v>4.4900399999999996</v>
+      </c>
+      <c r="F39" s="10">
+        <v>3.2613400000000001</v>
+      </c>
+      <c r="G39" s="10">
+        <v>3.27643</v>
+      </c>
+      <c r="H39" s="10">
+        <v>2.7622399999999998</v>
+      </c>
+      <c r="I39" s="10">
+        <v>2.6344099999999999</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2.3073600000000001</v>
+      </c>
+      <c r="K39" s="10">
+        <v>2.2362500000000001</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="22"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1073741824</v>
+      </c>
+      <c r="B40">
+        <v>54400028</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="6">
+        <v>30</v>
+      </c>
+      <c r="E40" s="15">
+        <v>9.1802600000000005</v>
+      </c>
+      <c r="F40" s="10">
+        <v>6.8577000000000004</v>
+      </c>
+      <c r="G40" s="10">
+        <v>6.5335799999999997</v>
+      </c>
+      <c r="H40" s="10">
+        <v>5.4662300000000004</v>
+      </c>
+      <c r="I40" s="10">
+        <v>5.27027</v>
+      </c>
+      <c r="J40" s="10">
+        <v>4.5944099999999999</v>
+      </c>
+      <c r="K40" s="10">
+        <v>4.6783799999999998</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="22"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2147483648</v>
+      </c>
+      <c r="B41">
+        <v>105097565</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="6">
+        <v>31</v>
+      </c>
+      <c r="E41" s="15">
+        <v>19.215299999999999</v>
+      </c>
+      <c r="F41" s="10">
+        <v>14.132400000000001</v>
+      </c>
+      <c r="G41" s="10">
+        <v>13.6424</v>
+      </c>
+      <c r="H41" s="10">
+        <v>11.2905</v>
+      </c>
+      <c r="I41" s="10">
+        <v>10.738</v>
+      </c>
+      <c r="J41" s="10">
+        <v>9.2602399999999996</v>
+      </c>
+      <c r="K41" s="10">
+        <v>8.9464000000000006</v>
+      </c>
+      <c r="L41" s="11"/>
+      <c r="M41" s="22"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4294967296</v>
+      </c>
+      <c r="B42">
+        <v>203280221</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="6">
+        <v>32</v>
+      </c>
+      <c r="E42" s="14">
+        <v>39.517899999999997</v>
+      </c>
+      <c r="F42" s="12">
+        <v>28.702400000000001</v>
+      </c>
+      <c r="G42" s="12">
+        <v>27.303599999999999</v>
+      </c>
+      <c r="H42" s="12">
+        <v>22.6906</v>
+      </c>
+      <c r="I42" s="12">
+        <v>21.5733</v>
+      </c>
+      <c r="J42" s="12">
+        <v>18.916699999999999</v>
+      </c>
+      <c r="K42" s="12">
+        <v>18.111499999999999</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="22"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>33554432</v>
+      </c>
+      <c r="B43">
+        <v>2063689</v>
+      </c>
+      <c r="C43" s="20">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6">
+        <v>25</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0.26127400000000001</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.148173</v>
+      </c>
+      <c r="G43" s="8">
+        <v>9.8404199999999997E-2</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0.11898599999999999</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0.535659</v>
+      </c>
+      <c r="J43" s="8">
+        <v>0.33315099999999997</v>
+      </c>
+      <c r="K43" s="8">
+        <v>0.302537</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="22"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>67108864</v>
+      </c>
+      <c r="B44">
+        <v>3957809</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="6">
+        <v>26</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0.599607</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0.35391800000000001</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0.391405</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0.30904500000000001</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.59422699999999995</v>
+      </c>
+      <c r="J44" s="10">
+        <v>0.32075799999999999</v>
+      </c>
+      <c r="K44" s="10">
+        <v>0.24956999999999999</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="22"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>134217728</v>
+      </c>
+      <c r="B45">
+        <v>7603553</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="6">
+        <v>27</v>
+      </c>
+      <c r="E45" s="15">
+        <v>1.1478200000000001</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0.87008700000000005</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1.0357400000000001</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0.78007599999999999</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0.83038699999999999</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0.66758399999999996</v>
+      </c>
+      <c r="K45" s="10">
+        <v>0.90395999999999999</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="22"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>268435456</v>
+      </c>
+      <c r="B46">
+        <v>14630843</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="6">
+        <v>28</v>
+      </c>
+      <c r="E46" s="15">
+        <v>2.3233600000000001</v>
+      </c>
+      <c r="F46" s="10">
+        <v>1.7647900000000001</v>
+      </c>
+      <c r="G46" s="10">
+        <v>1.7986200000000001</v>
+      </c>
+      <c r="H46" s="10">
+        <v>1.89046</v>
+      </c>
+      <c r="I46" s="10">
+        <v>1.7251700000000001</v>
+      </c>
+      <c r="J46" s="10">
+        <v>1.8879300000000001</v>
+      </c>
+      <c r="K46" s="10">
+        <v>1.6107899999999999</v>
+      </c>
+      <c r="L46" s="11"/>
+      <c r="M46" s="22"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>536870912</v>
+      </c>
+      <c r="B47">
+        <v>28192750</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="6">
+        <v>29</v>
+      </c>
+      <c r="E47" s="15">
+        <v>4.8341700000000003</v>
+      </c>
+      <c r="F47" s="10">
+        <v>3.7568000000000001</v>
+      </c>
+      <c r="G47" s="10">
+        <v>4.1474000000000002</v>
+      </c>
+      <c r="H47" s="10">
+        <v>3.2907799999999998</v>
+      </c>
+      <c r="I47" s="10">
+        <v>3.4059400000000002</v>
+      </c>
+      <c r="J47" s="10">
+        <v>2.86897</v>
+      </c>
+      <c r="K47" s="10">
+        <v>2.9242699999999999</v>
+      </c>
+      <c r="L47" s="11"/>
+      <c r="M47" s="22"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1073741824</v>
+      </c>
+      <c r="B48">
+        <v>54400028</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="6">
+        <v>30</v>
+      </c>
+      <c r="E48" s="15">
+        <v>9.5277600000000007</v>
+      </c>
+      <c r="F48" s="10">
+        <v>7.1982299999999997</v>
+      </c>
+      <c r="G48" s="10">
+        <v>7.3777999999999997</v>
+      </c>
+      <c r="H48" s="10">
+        <v>6.50345</v>
+      </c>
+      <c r="I48" s="10">
+        <v>6.53939</v>
+      </c>
+      <c r="J48" s="10">
+        <v>5.8105200000000004</v>
+      </c>
+      <c r="K48" s="10">
+        <v>6.7287400000000002</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="22"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2147483648</v>
+      </c>
+      <c r="B49">
+        <v>105097565</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="6">
+        <v>31</v>
+      </c>
+      <c r="E49" s="15">
+        <v>19.503900000000002</v>
+      </c>
+      <c r="F49" s="10">
+        <v>14.3207</v>
+      </c>
+      <c r="G49" s="10">
+        <v>15.1386</v>
+      </c>
+      <c r="H49" s="10">
+        <v>12.5236</v>
+      </c>
+      <c r="I49" s="10">
+        <v>13.2845</v>
+      </c>
+      <c r="J49" s="10">
+        <v>10.950900000000001</v>
+      </c>
+      <c r="K49" s="10">
+        <v>12.064500000000001</v>
+      </c>
+      <c r="L49" s="11"/>
+      <c r="M49" s="22"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4294967296</v>
+      </c>
+      <c r="B50">
+        <v>203280221</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="6">
+        <v>32</v>
+      </c>
+      <c r="E50" s="14">
+        <v>39.595199999999998</v>
+      </c>
+      <c r="F50" s="12">
+        <v>29.366299999999999</v>
+      </c>
+      <c r="G50" s="12">
+        <v>30.835699999999999</v>
+      </c>
+      <c r="H50" s="12">
+        <v>25.856400000000001</v>
+      </c>
+      <c r="I50" s="12">
+        <v>25.6235</v>
+      </c>
+      <c r="J50" s="12">
+        <v>22.429200000000002</v>
+      </c>
+      <c r="K50" s="12">
+        <v>22.672699999999999</v>
+      </c>
+      <c r="L50" s="13"/>
+      <c r="M50" s="22"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>33554432</v>
+      </c>
+      <c r="B51">
+        <v>2063689</v>
+      </c>
+      <c r="C51" s="20">
+        <v>7</v>
+      </c>
+      <c r="D51" s="6">
+        <v>25</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0.58058699999999996</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.47422300000000001</v>
+      </c>
+      <c r="G51" s="8">
+        <v>0.77351099999999995</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0.78122899999999995</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0.67754899999999996</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0.85414500000000004</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0.63411300000000004</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" s="22"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>67108864</v>
+      </c>
+      <c r="B52">
+        <v>3957809</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="6">
+        <v>26</v>
+      </c>
+      <c r="E52" s="15">
+        <v>0.92039199999999999</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0.47151399999999999</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0.84915499999999999</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0.85068600000000005</v>
+      </c>
+      <c r="I52" s="10">
+        <v>1.57748</v>
+      </c>
+      <c r="J52" s="10">
+        <v>0.84041699999999997</v>
+      </c>
+      <c r="K52" s="10">
+        <v>0.87782800000000005</v>
+      </c>
+      <c r="L52" s="11"/>
+      <c r="M52" s="22"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>134217728</v>
+      </c>
+      <c r="B53">
+        <v>7603553</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="6">
+        <v>27</v>
+      </c>
+      <c r="E53" s="15">
+        <v>1.80382</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1.4081900000000001</v>
+      </c>
+      <c r="G53" s="10">
+        <v>1.7360800000000001</v>
+      </c>
+      <c r="H53" s="10">
+        <v>1.4921800000000001</v>
+      </c>
+      <c r="I53" s="10">
+        <v>2.0454400000000001</v>
+      </c>
+      <c r="J53" s="10">
+        <v>2.0888300000000002</v>
+      </c>
+      <c r="K53" s="10">
+        <v>1.8507800000000001</v>
+      </c>
+      <c r="L53" s="11"/>
+      <c r="M53" s="22"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>268435456</v>
+      </c>
+      <c r="B54">
+        <v>14630843</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="6">
+        <v>28</v>
+      </c>
+      <c r="E54" s="15">
+        <v>3.2244700000000002</v>
+      </c>
+      <c r="F54" s="10">
+        <v>2.6124499999999999</v>
+      </c>
+      <c r="G54" s="10">
+        <v>2.6423899999999998</v>
+      </c>
+      <c r="H54" s="10">
+        <v>2.2356799999999999</v>
+      </c>
+      <c r="I54" s="10">
+        <v>3.6680700000000002</v>
+      </c>
+      <c r="J54" s="10">
+        <v>3.2841100000000001</v>
+      </c>
+      <c r="K54" s="10">
+        <v>4.2787300000000004</v>
+      </c>
+      <c r="L54" s="11"/>
+      <c r="M54" s="22"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>536870912</v>
+      </c>
+      <c r="B55">
+        <v>28192750</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="6">
+        <v>29</v>
+      </c>
+      <c r="E55" s="15">
+        <v>6.9519700000000002</v>
+      </c>
+      <c r="F55" s="10">
+        <v>4.8930400000000001</v>
+      </c>
+      <c r="G55" s="10">
+        <v>5.8527800000000001</v>
+      </c>
+      <c r="H55" s="10">
+        <v>5.7847799999999996</v>
+      </c>
+      <c r="I55" s="10">
+        <v>7.11233</v>
+      </c>
+      <c r="J55" s="10">
+        <v>6.0623100000000001</v>
+      </c>
+      <c r="K55" s="10">
+        <v>7.19259</v>
+      </c>
+      <c r="L55" s="11"/>
+      <c r="M55" s="22"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1073741824</v>
+      </c>
+      <c r="B56">
+        <v>54400028</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="6">
+        <v>30</v>
+      </c>
+      <c r="E56" s="15">
+        <v>11.8744</v>
+      </c>
+      <c r="F56" s="10">
+        <v>8.8274600000000003</v>
+      </c>
+      <c r="G56" s="10">
+        <v>12.867800000000001</v>
+      </c>
+      <c r="H56" s="10">
+        <v>11.685</v>
+      </c>
+      <c r="I56" s="10">
+        <v>12.515700000000001</v>
+      </c>
+      <c r="J56" s="10">
+        <v>12.5412</v>
+      </c>
+      <c r="K56" s="10">
+        <v>13.787699999999999</v>
+      </c>
+      <c r="L56" s="11"/>
+      <c r="M56" s="22"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2147483648</v>
+      </c>
+      <c r="B57">
+        <v>105097565</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="6">
+        <v>31</v>
+      </c>
+      <c r="E57" s="15">
+        <v>23.287700000000001</v>
+      </c>
+      <c r="F57" s="10">
+        <v>17.535399999999999</v>
+      </c>
+      <c r="G57" s="10">
+        <v>22.906099999999999</v>
+      </c>
+      <c r="H57" s="10">
+        <v>20.898</v>
+      </c>
+      <c r="I57" s="10">
+        <v>22.673100000000002</v>
+      </c>
+      <c r="J57" s="10">
+        <v>20.448399999999999</v>
+      </c>
+      <c r="K57" s="10">
+        <v>23.902100000000001</v>
+      </c>
+      <c r="L57" s="11"/>
+      <c r="M57" s="22"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4294967296</v>
+      </c>
+      <c r="B58">
+        <v>203280221</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="6">
+        <v>32</v>
+      </c>
+      <c r="E58" s="14">
+        <v>48.7346</v>
+      </c>
+      <c r="F58" s="12">
+        <v>34.615000000000002</v>
+      </c>
+      <c r="G58" s="12">
+        <v>46.294899999999998</v>
+      </c>
+      <c r="H58" s="12">
+        <v>36.154200000000003</v>
+      </c>
+      <c r="I58" s="12">
+        <v>40.247799999999998</v>
+      </c>
+      <c r="J58" s="12">
+        <v>37.356000000000002</v>
+      </c>
+      <c r="K58" s="12">
+        <v>41.323500000000003</v>
+      </c>
+      <c r="L58" s="13"/>
+      <c r="M58" s="22"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>33554432</v>
+      </c>
+      <c r="B59">
+        <v>2063689</v>
+      </c>
+      <c r="C59" s="20">
+        <v>8</v>
+      </c>
+      <c r="D59" s="6">
+        <v>25</v>
+      </c>
+      <c r="E59" s="16">
+        <v>7.0153400000000001</v>
+      </c>
+      <c r="F59" s="8">
+        <v>5.79291</v>
+      </c>
+      <c r="G59" s="8">
+        <v>9.7333400000000001</v>
+      </c>
+      <c r="H59" s="8">
+        <v>9.6582799999999995</v>
+      </c>
+      <c r="I59" s="8">
+        <v>9.6948000000000008</v>
+      </c>
+      <c r="J59" s="8">
+        <v>10.261799999999999</v>
+      </c>
+      <c r="K59" s="8">
+        <v>13.202999999999999</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" s="22"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>67108864</v>
+      </c>
+      <c r="B60">
+        <v>3957809</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="6">
+        <v>26</v>
+      </c>
+      <c r="E60" s="15">
+        <v>6.6866700000000003</v>
+      </c>
+      <c r="F60" s="10">
+        <v>5.4281100000000002</v>
+      </c>
+      <c r="G60" s="10">
+        <v>11.8489</v>
+      </c>
+      <c r="H60" s="10">
+        <v>15.7102</v>
+      </c>
+      <c r="I60" s="10">
+        <v>16.588200000000001</v>
+      </c>
+      <c r="J60" s="10">
+        <v>16.337700000000002</v>
+      </c>
+      <c r="K60" s="10">
+        <v>16.944099999999999</v>
+      </c>
+      <c r="L60" s="11"/>
+      <c r="M60" s="22"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>134217728</v>
+      </c>
+      <c r="B61">
+        <v>7603553</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="6">
+        <v>27</v>
+      </c>
+      <c r="E61" s="15">
+        <v>13.1046</v>
+      </c>
+      <c r="F61" s="10">
+        <v>8.1922300000000003</v>
+      </c>
+      <c r="G61" s="10">
+        <v>15.2645</v>
+      </c>
+      <c r="H61" s="10">
+        <v>21.011399999999998</v>
+      </c>
+      <c r="I61" s="10">
+        <v>23.466200000000001</v>
+      </c>
+      <c r="J61" s="10">
+        <v>20.450199999999999</v>
+      </c>
+      <c r="K61" s="10">
+        <v>26.903199999999998</v>
+      </c>
+      <c r="L61" s="11"/>
+      <c r="M61" s="22"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>268435456</v>
+      </c>
+      <c r="B62">
+        <v>14630843</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="6">
+        <v>28</v>
+      </c>
+      <c r="E62" s="15">
+        <v>18.432500000000001</v>
+      </c>
+      <c r="F62" s="10">
+        <v>22.2834</v>
+      </c>
+      <c r="G62" s="10">
+        <v>29.0092</v>
+      </c>
+      <c r="H62" s="10">
+        <v>27.295999999999999</v>
+      </c>
+      <c r="I62" s="10">
+        <v>30.967400000000001</v>
+      </c>
+      <c r="J62" s="10">
+        <v>33.157200000000003</v>
+      </c>
+      <c r="K62" s="10">
+        <v>36.506300000000003</v>
+      </c>
+      <c r="L62" s="11"/>
+      <c r="M62" s="22"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>536870912</v>
+      </c>
+      <c r="B63">
+        <v>28192750</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="6">
+        <v>29</v>
+      </c>
+      <c r="E63" s="15">
+        <v>26.047699999999999</v>
+      </c>
+      <c r="F63" s="10">
+        <v>30.121300000000002</v>
+      </c>
+      <c r="G63" s="10">
+        <v>37.387999999999998</v>
+      </c>
+      <c r="H63" s="10">
+        <v>39.875500000000002</v>
+      </c>
+      <c r="I63" s="10">
+        <v>48.479100000000003</v>
+      </c>
+      <c r="J63" s="10">
+        <v>47.0854</v>
+      </c>
+      <c r="K63" s="10">
+        <v>53.672699999999999</v>
+      </c>
+      <c r="L63" s="11"/>
+      <c r="M63" s="22"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1073741824</v>
+      </c>
+      <c r="B64">
+        <v>54400028</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="6">
+        <v>30</v>
+      </c>
+      <c r="E64" s="15">
+        <v>44.706000000000003</v>
+      </c>
+      <c r="F64" s="10">
+        <v>45.335900000000002</v>
+      </c>
+      <c r="G64" s="10">
+        <v>57.803400000000003</v>
+      </c>
+      <c r="H64" s="10">
+        <v>59.433799999999998</v>
+      </c>
+      <c r="I64" s="10">
+        <v>64.764099999999999</v>
+      </c>
+      <c r="J64" s="10">
+        <v>65.890600000000006</v>
+      </c>
+      <c r="K64" s="10">
+        <v>75.950699999999998</v>
+      </c>
+      <c r="L64" s="11"/>
+      <c r="M64" s="22"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2147483648</v>
+      </c>
+      <c r="B65">
+        <v>105097565</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="6">
+        <v>31</v>
+      </c>
+      <c r="E65" s="15">
+        <v>67.941599999999994</v>
+      </c>
+      <c r="F65" s="10">
+        <v>62.354199999999999</v>
+      </c>
+      <c r="G65" s="10">
+        <v>86.144800000000004</v>
+      </c>
+      <c r="H65" s="10">
+        <v>90.000799999999998</v>
+      </c>
+      <c r="I65" s="10">
+        <v>97.863200000000006</v>
+      </c>
+      <c r="J65" s="10">
+        <v>100.16500000000001</v>
+      </c>
+      <c r="K65" s="10">
+        <v>106.21599999999999</v>
+      </c>
+      <c r="L65" s="11"/>
+      <c r="M65" s="22"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4294967296</v>
+      </c>
+      <c r="B66">
+        <v>203280221</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="6">
+        <v>32</v>
+      </c>
+      <c r="E66" s="14">
+        <v>102.288</v>
+      </c>
+      <c r="F66" s="12">
+        <v>102.77</v>
+      </c>
+      <c r="G66" s="12">
+        <v>130.273</v>
+      </c>
+      <c r="H66" s="12">
+        <v>136.78299999999999</v>
+      </c>
+      <c r="I66" s="12">
+        <v>137.57499999999999</v>
+      </c>
+      <c r="J66" s="12">
+        <v>144.839</v>
+      </c>
+      <c r="K66" s="12">
+        <v>157.44800000000001</v>
+      </c>
+      <c r="L66" s="13"/>
+      <c r="M66" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="L51:L58"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="L59:L66"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W3:W10"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="L27:L34"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="L35:L42"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="L43:L50"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="L3:L10"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="L11:L18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="L19:L26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/project-2/results/spreadsheet/MPI_OMP.xlsx
+++ b/project-2/results/spreadsheet/MPI_OMP.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="7" r:id="rId1"/>
     <sheet name="Data2" sheetId="9" r:id="rId2"/>
     <sheet name="1core" sheetId="1" r:id="rId3"/>
     <sheet name="2cores" sheetId="10" r:id="rId4"/>
-    <sheet name="4core" sheetId="3" r:id="rId5"/>
+    <sheet name="4cores" sheetId="13" r:id="rId5"/>
     <sheet name="8cores" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
   <si>
     <t>Processes</t>
   </si>
@@ -219,46 +219,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,6 +252,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,12 +1031,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="63123968"/>
-        <c:axId val="93674816"/>
-        <c:axId val="41621376"/>
+        <c:axId val="212949504"/>
+        <c:axId val="212910080"/>
+        <c:axId val="212935296"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="63123968"/>
+        <c:axId val="212949504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93674816"/>
+        <c:crossAx val="212910080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1069,7 +1080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93674816"/>
+        <c:axId val="212910080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,12 +1117,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63123968"/>
+        <c:crossAx val="212949504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="41621376"/>
+        <c:axId val="212935296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93674816"/>
+        <c:crossAx val="212910080"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1252,11 +1263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221064576"/>
-        <c:axId val="221064000"/>
+        <c:axId val="212912384"/>
+        <c:axId val="212912960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221064576"/>
+        <c:axId val="212912384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1286,12 +1297,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221064000"/>
+        <c:crossAx val="212912960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221064000"/>
+        <c:axId val="212912960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -1323,7 +1334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221064576"/>
+        <c:crossAx val="212912384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1348,10 +1359,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="110"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="10"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1365,14 +1376,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="pt-PT"/>
               <a:t>MPI &amp; OPM on 4 computers (2 cores enabled) exp 32</a:t>
             </a:r>
-            <a:endParaRPr lang="pt-PT">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1977,12 +1983,12 @@
           </c:val>
         </c:ser>
         <c:bandFmts/>
-        <c:axId val="61481472"/>
-        <c:axId val="93669056"/>
-        <c:axId val="230401280"/>
+        <c:axId val="212947968"/>
+        <c:axId val="212914688"/>
+        <c:axId val="212937216"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="61481472"/>
+        <c:axId val="212947968"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2018,7 +2024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93669056"/>
+        <c:crossAx val="212914688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2026,7 +2032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93669056"/>
+        <c:axId val="212914688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,12 +2069,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61481472"/>
+        <c:crossAx val="212947968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="230401280"/>
+        <c:axId val="212937216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93669056"/>
+        <c:crossAx val="212914688"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -2755,11 +2761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227652672"/>
-        <c:axId val="227652096"/>
+        <c:axId val="212916992"/>
+        <c:axId val="212917568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227652672"/>
+        <c:axId val="212916992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -2790,12 +2796,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227652096"/>
+        <c:crossAx val="212917568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227652096"/>
+        <c:axId val="212917568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2826,7 +2832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227652672"/>
+        <c:crossAx val="212916992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2841,6 +2847,1761 @@
           <c:y val="0.36567555673461427"/>
           <c:w val="5.2657657657657661E-2"/>
           <c:h val="0.35568775468165081"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>MPI &amp; OPM on 4 computers (4 cores enabled) exp 32</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="240"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7600357316712081E-2"/>
+          <c:y val="8.594823157513154E-2"/>
+          <c:w val="0.92276930488851416"/>
+          <c:h val="0.84248684617933745"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cores'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cores'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cores'!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>44.7423</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.201999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.876100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.203099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.493899999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142.30600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cores'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cores'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cores'!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36.8005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.944800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.057299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.778700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.09699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cores'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cores'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cores'!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32.427199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.430799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.049799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.537199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.625700000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cores'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cores'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cores'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30.570499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.242699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.586200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.634900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126.229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cores'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cores'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cores'!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30.843299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.492699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.484400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.265300000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.337100000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174.45400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cores'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cores'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cores'!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28.286999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.162600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.031500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.310699999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.746600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cores'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cores'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cores'!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26.3337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.786200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.540299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.480800000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.671999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.61500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cores'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cores'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cores'!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24.573399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.402100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.265499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.864100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.058799999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164.251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cores'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cores'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cores'!$K$3:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23.0762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.6417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.607099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.857799999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.105599999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>177.60599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cores'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cores'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cores'!$L$3:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.0136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.8584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.847799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.754800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.978200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>183.95500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cores'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cores'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cores'!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20.5974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.594799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.495200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.144100000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.850200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187.67500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cores'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cores'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cores'!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19.829000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.7088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.547899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.1509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.025399999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>184.36600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4cores'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4cores'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4cores'!$O$3:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21.404599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.156300000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.064599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.799700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.359099999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190.35599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts/>
+        <c:axId val="52900352"/>
+        <c:axId val="216183872"/>
+        <c:axId val="217408768"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="52900352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.456045527769831E-2"/>
+              <c:y val="0.79531195024688772"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="216183872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="216183872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.96222901391628146"/>
+              <c:y val="0.26944634170276294"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52900352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="217408768"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.59661241675574495"/>
+              <c:y val="0.81724626306596881"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="216183872"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI &amp; OPM on 4 computers (8 cores enabled) exp 32</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9969347803155812E-2"/>
+          <c:y val="0.15328801112975632"/>
+          <c:w val="0.86948691697225811"/>
+          <c:h val="0.66040359709134722"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cores'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cores'!$C$2:$AA$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cores'!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>54.039000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.0182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.839199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.783700000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.152700000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.962000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.181800000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.058500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.484299999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.325899999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.575899999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.081800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.942399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.934699999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.073799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.529299999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.034199999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.998200000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.101400000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.1844</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.575199999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.964300000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.325099999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.993200000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.742100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cores'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cores'!$C$2:$AA$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cores'!$C$4:$AA$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>143.50800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.516599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.098299999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143.566</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130.85400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125.249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.719200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.163499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.116399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.412199999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72.528099999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>116.947</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.012500000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.208799999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101.629</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.456999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89.646900000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61.393500000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.029899999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.524099999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.326900000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.281199999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71.286299999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68.4208</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>128.63999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8cores'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8cores'!$C$2:$AA$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8cores'!$C$5:$AA$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>251.41399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245.06200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>282.64800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="336868416"/>
+        <c:axId val="336867840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="336868416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="336867840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="336867840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="336868416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.94213816653532967"/>
+          <c:y val="0.45396411514134505"/>
+          <c:w val="3.6847911741528766E-2"/>
+          <c:h val="0.19762746869756034"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3021,6 +4782,181 @@
           <a:r>
             <a:rPr lang="pt-PT" sz="1400" b="1"/>
             <a:t>Processes</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.92514</cdr:x>
+      <cdr:y>0.36157</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.44081</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="11182367" y="1260475"/>
+          <a:ext cx="904858" cy="276239"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>Threads</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -3318,8 +5254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1569"/>
   <sheetViews>
-    <sheetView topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:F515"/>
+    <sheetView topLeftCell="A1133" workbookViewId="0">
+      <selection activeCell="F1569" sqref="A1141:F1569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3349,14 +5285,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -4639,14 +6575,14 @@
       </c>
     </row>
     <row r="67" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -13609,14 +15545,14 @@
       </c>
     </row>
     <row r="516" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="4" t="s">
+      <c r="A516" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B516" s="4"/>
-      <c r="C516" s="4"/>
-      <c r="D516" s="4"/>
-      <c r="E516" s="4"/>
-      <c r="F516" s="4"/>
+      <c r="B516" s="27"/>
+      <c r="C516" s="27"/>
+      <c r="D516" s="27"/>
+      <c r="E516" s="27"/>
+      <c r="F516" s="27"/>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
@@ -26079,14 +28015,14 @@
       </c>
     </row>
     <row r="1140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1140" s="5" t="s">
+      <c r="A1140" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1140" s="5"/>
-      <c r="C1140" s="5"/>
-      <c r="D1140" s="5"/>
-      <c r="E1140" s="5"/>
-      <c r="F1140" s="5"/>
+      <c r="B1140" s="28"/>
+      <c r="C1140" s="28"/>
+      <c r="D1140" s="28"/>
+      <c r="E1140" s="28"/>
+      <c r="F1140" s="28"/>
     </row>
     <row r="1141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1141">
@@ -34684,7 +36620,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34714,14 +36650,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -34884,14 +36820,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="26">
+        <v>2</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -35054,14 +36990,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="26">
         <v>3</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -35224,14 +37160,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="26">
         <v>4</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -35394,14 +37330,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="26">
         <v>5</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -35564,14 +37500,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="26">
         <v>6</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -35734,14 +37670,14 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="26">
         <v>7</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -35904,14 +37840,14 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="26">
         <v>8</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -36074,14 +38010,14 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="26">
         <v>9</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -36263,8 +38199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36289,16 +38225,16 @@
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F2" s="2">
@@ -36333,40 +38269,40 @@
       <c r="B3">
         <v>2063689</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>25</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>4.2750099999999999E-2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <v>2.6443000000000001E-2</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <v>2.47262E-2</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="13">
         <v>1.7551899999999999E-2</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="5">
         <v>2.4544E-2</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="5">
         <v>3.3152099999999997E-2</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="5">
         <v>4.1978799999999997E-2</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="5">
         <v>3.3674000000000003E-2</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -36377,40 +38313,40 @@
       <c r="B4">
         <v>3957809</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>26</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="9">
         <v>0.15975500000000001</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>0.13488900000000001</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="12">
         <v>0.13200899999999999</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="6">
         <v>0.133297</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="6">
         <v>0.14138999999999999</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="6">
         <v>0.13494900000000001</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="6">
         <v>0.137401</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="6">
         <v>0.18426500000000001</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -36419,40 +38355,40 @@
       <c r="B5">
         <v>7603553</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>27</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="9">
         <v>0.42675200000000002</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="6">
         <v>0.33844400000000002</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="12">
         <v>0.32947100000000001</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="6">
         <v>0.32998100000000002</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="6">
         <v>0.35420099999999999</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="6">
         <v>0.35713899999999998</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="6">
         <v>0.35744199999999998</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="6">
         <v>0.43269800000000003</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -36461,40 +38397,40 @@
       <c r="B6">
         <v>14630843</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>28</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="9">
         <v>0.93579699999999999</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="6">
         <v>0.76340300000000005</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="12">
         <v>0.732541</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="6">
         <v>0.74241400000000002</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="6">
         <v>0.78282300000000005</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="6">
         <v>0.77749999999999997</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="6">
         <v>0.77409700000000004</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="6">
         <v>0.87335200000000002</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -36503,40 +38439,40 @@
       <c r="B7">
         <v>28192750</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>29</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="9">
         <v>1.9939800000000001</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="6">
         <v>1.6402699999999999</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="12">
         <v>1.5641700000000001</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="6">
         <v>1.57378</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="6">
         <v>1.6392199999999999</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="6">
         <v>1.6221000000000001</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="6">
         <v>1.63557</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="6">
         <v>1.92378</v>
       </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -36545,40 +38481,40 @@
       <c r="B8">
         <v>54400028</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>30</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="9">
         <v>4.1812199999999997</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="6">
         <v>3.3520699999999999</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="12">
         <v>3.2227100000000002</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="6">
         <v>3.4840599999999999</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="6">
         <v>3.4351099999999999</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="6">
         <v>3.3472200000000001</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="6">
         <v>3.50508</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="6">
         <v>3.7547899999999998</v>
       </c>
-      <c r="N8" s="11"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -36587,40 +38523,40 @@
       <c r="B9">
         <v>105097565</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>31</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="9">
         <v>8.6181699999999992</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <v>6.8907800000000003</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="12">
         <v>6.6719299999999997</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="6">
         <v>6.9672200000000002</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="6">
         <v>7.0686799999999996</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="6">
         <v>6.8452299999999999</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="6">
         <v>6.8789600000000002</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="6">
         <v>7.7215499999999997</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -36629,40 +38565,40 @@
       <c r="B10">
         <v>203280221</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>32</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="8">
         <v>17.671800000000001</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="7">
         <v>14.101800000000001</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="38">
         <v>13.6554</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="7">
         <v>13.757099999999999</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="7">
         <v>14.427899999999999</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="7">
         <v>14.0275</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="7">
         <v>14.0633</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="7">
         <v>15.466900000000001</v>
       </c>
-      <c r="N10" s="13"/>
+      <c r="N10" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -36678,8 +38614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="AE28" sqref="AE28"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36705,30 +38641,30 @@
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E2" s="2">
@@ -36781,65 +38717,65 @@
       <c r="B3">
         <v>2063689</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="33">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>25</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="10">
         <v>0.190746</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>0.14100199999999999</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <v>0.112291</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <v>7.3021900000000001E-2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <v>7.5537900000000005E-2</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="13">
         <v>6.9080100000000005E-2</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="5">
         <v>7.4059E-2</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="15"/>
       <c r="N3">
         <v>32</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="16">
         <v>43.316299999999998</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="19">
         <v>30.768000000000001</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="19">
         <v>27.2484</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="19">
         <v>22.595500000000001</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="19">
         <v>22.2148</v>
       </c>
-      <c r="U3" s="19">
+      <c r="U3" s="13">
         <v>18.379799999999999</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="20">
         <v>21.419899999999998</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -36850,61 +38786,61 @@
       <c r="B4">
         <v>3957809</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="6">
+      <c r="C4" s="33"/>
+      <c r="D4" s="3">
         <v>26</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="9">
         <v>0.46169199999999999</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>0.33049499999999998</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>0.30236499999999999</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="6">
         <v>0.23829400000000001</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="6">
         <v>0.25822499999999998</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="12">
         <v>0.162525</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="6">
         <v>0.235456</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="22"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="15"/>
       <c r="N4">
         <v>32</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="17">
         <v>38.931100000000001</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="21">
         <v>28.2806</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="21">
         <v>27.740300000000001</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="21">
         <v>23.242999999999999</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="21">
         <v>21.2196</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="21">
         <v>17.758700000000001</v>
       </c>
-      <c r="V4" s="32">
+      <c r="V4" s="25">
         <v>17.596699999999998</v>
       </c>
-      <c r="W4" s="11"/>
+      <c r="W4" s="31"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -36913,61 +38849,61 @@
       <c r="B5">
         <v>7603553</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="6">
+      <c r="C5" s="33"/>
+      <c r="D5" s="3">
         <v>27</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="9">
         <v>0.99231199999999997</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="6">
         <v>0.75766900000000004</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="6">
         <v>0.67681899999999995</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="6">
         <v>0.56731299999999996</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="6">
         <v>0.52714399999999995</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="6">
         <v>0.43672699999999998</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="12">
         <v>0.40710099999999999</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="22"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="15"/>
       <c r="N5">
         <v>32</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="17">
         <v>38.479700000000001</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="21">
         <v>29.175999999999998</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="21">
         <v>27.058</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="21">
         <v>22.724699999999999</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="21">
         <v>21.096699999999998</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="21">
         <v>18.388400000000001</v>
       </c>
-      <c r="V5" s="32">
+      <c r="V5" s="25">
         <v>17.1496</v>
       </c>
-      <c r="W5" s="11"/>
+      <c r="W5" s="31"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -36976,61 +38912,61 @@
       <c r="B6">
         <v>14630843</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="6">
+      <c r="C6" s="33"/>
+      <c r="D6" s="3">
         <v>28</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="9">
         <v>2.0694699999999999</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <v>1.59765</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="6">
         <v>1.4652700000000001</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <v>1.2067600000000001</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="6">
         <v>1.1283300000000001</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="6">
         <v>0.97577199999999997</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="12">
         <v>0.96978900000000001</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="22"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="15"/>
       <c r="N6">
         <v>32</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="17">
         <v>38.745100000000001</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="21">
         <v>28.341699999999999</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="21">
         <v>26.547799999999999</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="21">
         <v>21.950900000000001</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="21">
         <v>20.6175</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="21">
         <v>17.9435</v>
       </c>
-      <c r="V6" s="25">
+      <c r="V6" s="18">
         <v>16.956700000000001</v>
       </c>
-      <c r="W6" s="11"/>
+      <c r="W6" s="31"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -37039,61 +38975,61 @@
       <c r="B7">
         <v>28192750</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="6">
+      <c r="C7" s="33"/>
+      <c r="D7" s="3">
         <v>29</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="9">
         <v>4.3251999999999997</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>3.4097499999999998</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="6">
         <v>3.1612800000000001</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="6">
         <v>2.5812599999999999</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="6">
         <v>2.3578199999999998</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="6">
         <v>2.1465100000000001</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="12">
         <v>2.1271100000000001</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="22"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="15"/>
       <c r="N7">
         <v>32</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="17">
         <v>39.517899999999997</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="21">
         <v>28.702400000000001</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="21">
         <v>27.303599999999999</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="21">
         <v>22.6906</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="21">
         <v>21.5733</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="21">
         <v>18.916699999999999</v>
       </c>
-      <c r="V7" s="32">
+      <c r="V7" s="25">
         <v>18.111499999999999</v>
       </c>
-      <c r="W7" s="11"/>
+      <c r="W7" s="31"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -37102,61 +39038,61 @@
       <c r="B8">
         <v>54400028</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="6">
+      <c r="C8" s="33"/>
+      <c r="D8" s="3">
         <v>30</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="9">
         <v>9.0351700000000008</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>7.0403900000000004</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="6">
         <v>7.3089300000000001</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="6">
         <v>5.9146400000000003</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="6">
         <v>4.9276799999999996</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="12">
         <v>4.33432</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="6">
         <v>4.9210900000000004</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="22"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="15"/>
       <c r="N8">
         <v>32</v>
       </c>
       <c r="O8">
         <v>6</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="17">
         <v>39.595199999999998</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="21">
         <v>29.366299999999999</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="21">
         <v>30.835699999999999</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="21">
         <v>25.856400000000001</v>
       </c>
-      <c r="T8" s="28">
+      <c r="T8" s="21">
         <v>25.6235</v>
       </c>
-      <c r="U8" s="28">
+      <c r="U8" s="21">
         <v>22.429200000000002</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="22">
         <v>22.672699999999999</v>
       </c>
-      <c r="W8" s="11"/>
+      <c r="W8" s="31"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -37165,61 +39101,61 @@
       <c r="B9">
         <v>105097565</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="6">
+      <c r="C9" s="33"/>
+      <c r="D9" s="3">
         <v>31</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="9">
         <v>19.288599999999999</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>14.451499999999999</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <v>13.1502</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="6">
         <v>11.097300000000001</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="6">
         <v>10.055999999999999</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="6">
         <v>9.0885899999999999</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="12">
         <v>8.4526299999999992</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="22"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="15"/>
       <c r="N9">
         <v>32</v>
       </c>
       <c r="O9">
         <v>7</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="17">
         <v>48.7346</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="21">
         <v>34.615000000000002</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="21">
         <v>46.294899999999998</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="21">
         <v>36.154200000000003</v>
       </c>
-      <c r="T9" s="28">
+      <c r="T9" s="21">
         <v>40.247799999999998</v>
       </c>
-      <c r="U9" s="28">
+      <c r="U9" s="21">
         <v>37.356000000000002</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="22">
         <v>41.323500000000003</v>
       </c>
-      <c r="W9" s="11"/>
+      <c r="W9" s="31"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -37228,61 +39164,61 @@
       <c r="B10">
         <v>203280221</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="6">
+      <c r="C10" s="33"/>
+      <c r="D10" s="3">
         <v>32</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="8">
         <v>43.316299999999998</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="7">
         <v>30.768000000000001</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="7">
         <v>27.2484</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="7">
         <v>22.595500000000001</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="7">
         <v>22.2148</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="11">
         <v>18.379799999999999</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="7">
         <v>21.419899999999998</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="22"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="15"/>
       <c r="N10">
         <v>32</v>
       </c>
       <c r="O10">
         <v>8</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="14">
         <v>102.288</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="23">
         <v>102.77</v>
       </c>
-      <c r="R10" s="30">
+      <c r="R10" s="23">
         <v>130.273</v>
       </c>
-      <c r="S10" s="30">
+      <c r="S10" s="23">
         <v>136.78299999999999</v>
       </c>
-      <c r="T10" s="30">
+      <c r="T10" s="23">
         <v>137.57499999999999</v>
       </c>
-      <c r="U10" s="30">
+      <c r="U10" s="23">
         <v>144.839</v>
       </c>
-      <c r="V10" s="31">
+      <c r="V10" s="24">
         <v>157.44800000000001</v>
       </c>
-      <c r="W10" s="13"/>
+      <c r="W10" s="32"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -37291,37 +39227,37 @@
       <c r="B11">
         <v>2063689</v>
       </c>
-      <c r="C11" s="20">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="33">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
         <v>25</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="10">
         <v>0.199682</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>0.121766</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>0.128607</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="5">
         <v>7.8559199999999996E-2</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="5">
         <v>6.9545999999999997E-2</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="5">
         <v>3.6978999999999998E-2</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="5">
         <v>3.3222000000000002E-2</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="22"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -37330,33 +39266,33 @@
       <c r="B12">
         <v>3957809</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="6">
+      <c r="C12" s="33"/>
+      <c r="D12" s="3">
         <v>26</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="9">
         <v>0.46946900000000003</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="6">
         <v>0.31224000000000002</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="6">
         <v>0.28120200000000001</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="6">
         <v>0.23349400000000001</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="6">
         <v>0.198711</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="6">
         <v>0.17030400000000001</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="6">
         <v>0.15229000000000001</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -37365,33 +39301,33 @@
       <c r="B13">
         <v>7603553</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="6">
+      <c r="C13" s="33"/>
+      <c r="D13" s="3">
         <v>27</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="9">
         <v>1.0358400000000001</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <v>0.70147300000000001</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="6">
         <v>0.68784100000000004</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="6">
         <v>0.55983099999999997</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="6">
         <v>0.52339999999999998</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="6">
         <v>0.41017900000000002</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="6">
         <v>0.39174799999999999</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="22"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -37400,33 +39336,33 @@
       <c r="B14">
         <v>14630843</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="6">
+      <c r="C14" s="33"/>
+      <c r="D14" s="3">
         <v>28</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="9">
         <v>2.0414099999999999</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="6">
         <v>1.4844299999999999</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="6">
         <v>1.4758199999999999</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="6">
         <v>1.15645</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="6">
         <v>1.12097</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="6">
         <v>0.97672999999999999</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="6">
         <v>0.92686199999999996</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="22"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -37435,33 +39371,33 @@
       <c r="B15">
         <v>28192750</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="6">
+      <c r="C15" s="33"/>
+      <c r="D15" s="3">
         <v>29</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="9">
         <v>4.6502699999999999</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <v>3.2865199999999999</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="6">
         <v>2.95241</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="6">
         <v>2.55138</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="6">
         <v>2.3313000000000001</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="6">
         <v>2.0731600000000001</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="6">
         <v>1.92563</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="22"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -37470,33 +39406,33 @@
       <c r="B16">
         <v>54400028</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="6">
+      <c r="C16" s="33"/>
+      <c r="D16" s="3">
         <v>30</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="9">
         <v>9.0611099999999993</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="6">
         <v>6.45573</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="6">
         <v>6.2042999999999999</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="6">
         <v>5.26722</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="6">
         <v>4.9188400000000003</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="6">
         <v>4.1978400000000002</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="6">
         <v>4.0141799999999996</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="22"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -37505,33 +39441,33 @@
       <c r="B17">
         <v>105097565</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="6">
+      <c r="C17" s="33"/>
+      <c r="D17" s="3">
         <v>31</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="9">
         <v>18.351400000000002</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <v>13.5794</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="6">
         <v>13.115</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="6">
         <v>10.3527</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="6">
         <v>10.0563</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="6">
         <v>8.8950200000000006</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="6">
         <v>9.6514000000000006</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="22"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -37540,33 +39476,33 @@
       <c r="B18">
         <v>203280221</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="6">
+      <c r="C18" s="33"/>
+      <c r="D18" s="3">
         <v>32</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="8">
         <v>38.931100000000001</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="7">
         <v>28.2806</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="7">
         <v>27.740300000000001</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="7">
         <v>23.242999999999999</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="7">
         <v>21.2196</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="7">
         <v>17.758700000000001</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="7">
         <v>17.596699999999998</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="22"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -37575,37 +39511,37 @@
       <c r="B19">
         <v>2063689</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="33">
         <v>3</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>25</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="10">
         <v>0.21020900000000001</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <v>0.12987000000000001</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="5">
         <v>0.13508100000000001</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="5">
         <v>7.9215999999999995E-2</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="5">
         <v>7.7635999999999997E-2</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="5">
         <v>4.1156100000000001E-2</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="5">
         <v>5.4217799999999997E-2</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="22"/>
+      <c r="M19" s="15"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -37614,33 +39550,33 @@
       <c r="B20">
         <v>3957809</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="6">
+      <c r="C20" s="33"/>
+      <c r="D20" s="3">
         <v>26</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="9">
         <v>0.46143000000000001</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="6">
         <v>0.32241399999999998</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="6">
         <v>0.29618100000000003</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="6">
         <v>0.23250899999999999</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="6">
         <v>0.215591</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="6">
         <v>0.19791500000000001</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="6">
         <v>0.149759</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="22"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -37649,33 +39585,33 @@
       <c r="B21">
         <v>7603553</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="6">
+      <c r="C21" s="33"/>
+      <c r="D21" s="3">
         <v>27</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="9">
         <v>0.997506</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="6">
         <v>0.71226</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="6">
         <v>0.69593499999999997</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="6">
         <v>0.54777200000000004</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="6">
         <v>0.52935500000000002</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="6">
         <v>0.459341</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="6">
         <v>0.41523599999999999</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="22"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -37684,33 +39620,33 @@
       <c r="B22">
         <v>14630843</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="6">
+      <c r="C22" s="33"/>
+      <c r="D22" s="3">
         <v>28</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="9">
         <v>2.09884</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="6">
         <v>1.5079400000000001</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="6">
         <v>1.50776</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="6">
         <v>1.24343</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="6">
         <v>1.1561600000000001</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="6">
         <v>1.00448</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="6">
         <v>0.94619600000000004</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="22"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="15"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -37719,33 +39655,33 @@
       <c r="B23">
         <v>28192750</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="6">
+      <c r="C23" s="33"/>
+      <c r="D23" s="3">
         <v>29</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="9">
         <v>4.3217999999999996</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="6">
         <v>3.1652499999999999</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="6">
         <v>3.1129699999999998</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="6">
         <v>2.6013999999999999</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="6">
         <v>2.4119700000000002</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="6">
         <v>2.1143200000000002</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="6">
         <v>1.9664200000000001</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="22"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -37754,33 +39690,33 @@
       <c r="B24">
         <v>54400028</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="6">
+      <c r="C24" s="33"/>
+      <c r="D24" s="3">
         <v>30</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="9">
         <v>9.1139700000000001</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="6">
         <v>6.8119699999999996</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="6">
         <v>6.3855700000000004</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="6">
         <v>5.3871799999999999</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="6">
         <v>5.0491099999999998</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="6">
         <v>4.3839300000000003</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="6">
         <v>4.1007899999999999</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="22"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -37789,33 +39725,33 @@
       <c r="B25">
         <v>105097565</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="6">
+      <c r="C25" s="33"/>
+      <c r="D25" s="3">
         <v>31</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="9">
         <v>18.7729</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="6">
         <v>13.4693</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="6">
         <v>13.1607</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="6">
         <v>11.091799999999999</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="6">
         <v>10.326499999999999</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="6">
         <v>9.0055399999999999</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="6">
         <v>8.4154699999999991</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="22"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -37824,33 +39760,33 @@
       <c r="B26">
         <v>203280221</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="6">
+      <c r="C26" s="33"/>
+      <c r="D26" s="3">
         <v>32</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="8">
         <v>38.479700000000001</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="7">
         <v>29.175999999999998</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="7">
         <v>27.058</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="7">
         <v>22.724699999999999</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="7">
         <v>21.096699999999998</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="7">
         <v>18.388400000000001</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="7">
         <v>17.1496</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="22"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -37859,37 +39795,37 @@
       <c r="B27">
         <v>2063689</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="33">
         <v>4</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <v>25</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="10">
         <v>0.22983400000000001</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="5">
         <v>0.106127</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="5">
         <v>9.44831E-2</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="5">
         <v>5.7655999999999999E-2</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="5">
         <v>7.3430099999999998E-2</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="5">
         <v>4.2900800000000003E-2</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="5">
         <v>6.1710099999999997E-2</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M27" s="22"/>
+      <c r="M27" s="15"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -37898,33 +39834,33 @@
       <c r="B28">
         <v>3957809</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="6">
+      <c r="C28" s="33"/>
+      <c r="D28" s="3">
         <v>26</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="9">
         <v>0.52655200000000002</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="6">
         <v>0.32538499999999998</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="6">
         <v>0.30712299999999998</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="6">
         <v>0.238651</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="6">
         <v>0.21923899999999999</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="6">
         <v>0.14346100000000001</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="6">
         <v>0.16083500000000001</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="22"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="15"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -37933,33 +39869,33 @@
       <c r="B29">
         <v>7603553</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="6">
+      <c r="C29" s="33"/>
+      <c r="D29" s="3">
         <v>27</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="9">
         <v>1.14375</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="6">
         <v>0.70132300000000003</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="6">
         <v>0.70321800000000001</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="6">
         <v>0.54971400000000004</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="6">
         <v>0.51201600000000003</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="6">
         <v>0.43479200000000001</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="6">
         <v>0.40930699999999998</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="22"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="15"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -37968,33 +39904,33 @@
       <c r="B30">
         <v>14630843</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="6">
+      <c r="C30" s="33"/>
+      <c r="D30" s="3">
         <v>28</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="9">
         <v>2.3742700000000001</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="6">
         <v>1.5345899999999999</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="6">
         <v>1.48437</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="6">
         <v>1.1915500000000001</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="6">
         <v>1.13642</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="6">
         <v>0.98562700000000003</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="6">
         <v>0.92854300000000001</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="22"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -38003,33 +39939,33 @@
       <c r="B31">
         <v>28192750</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="6">
+      <c r="C31" s="33"/>
+      <c r="D31" s="3">
         <v>29</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="9">
         <v>5.0928100000000001</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="6">
         <v>3.2690199999999998</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="6">
         <v>3.0752100000000002</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="6">
         <v>2.52678</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="6">
         <v>2.3692199999999999</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="6">
         <v>2.1389999999999998</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="6">
         <v>1.95285</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="22"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -38038,33 +39974,33 @@
       <c r="B32">
         <v>54400028</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="6">
+      <c r="C32" s="33"/>
+      <c r="D32" s="3">
         <v>30</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="9">
         <v>9.3310700000000004</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="6">
         <v>6.67293</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="6">
         <v>6.3860700000000001</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="6">
         <v>5.1897700000000002</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="6">
         <v>4.9255300000000002</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="6">
         <v>4.3626399999999999</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="6">
         <v>4.04765</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="22"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -38073,33 +40009,33 @@
       <c r="B33">
         <v>105097565</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="6">
+      <c r="C33" s="33"/>
+      <c r="D33" s="3">
         <v>31</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="9">
         <v>18.886700000000001</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="6">
         <v>13.902100000000001</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="6">
         <v>13.2293</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="6">
         <v>10.6891</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="6">
         <v>10.088200000000001</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="6">
         <v>8.8496100000000002</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="6">
         <v>8.2740799999999997</v>
       </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="22"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="15"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -38108,33 +40044,33 @@
       <c r="B34">
         <v>203280221</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="6">
+      <c r="C34" s="33"/>
+      <c r="D34" s="3">
         <v>32</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="8">
         <v>38.745100000000001</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="7">
         <v>28.341699999999999</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="7">
         <v>26.547799999999999</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="7">
         <v>21.950900000000001</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="7">
         <v>20.6175</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="7">
         <v>17.9435</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="7">
         <v>16.956700000000001</v>
       </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="22"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -38143,37 +40079,37 @@
       <c r="B35">
         <v>2063689</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="33">
         <v>5</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="3">
         <v>25</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="10">
         <v>0.22101100000000001</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="5">
         <v>0.12789</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="5">
         <v>9.5912899999999995E-2</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="5">
         <v>6.4879199999999998E-2</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="5">
         <v>0.14127400000000001</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="5">
         <v>8.8882199999999995E-2</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="5">
         <v>8.8172899999999998E-2</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M35" s="22"/>
+      <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -38182,33 +40118,33 @@
       <c r="B36">
         <v>3957809</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="6">
+      <c r="C36" s="33"/>
+      <c r="D36" s="3">
         <v>26</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="9">
         <v>0.48815500000000001</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="6">
         <v>0.31250299999999998</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="6">
         <v>0.29342699999999999</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="6">
         <v>0.21332499999999999</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="6">
         <v>0.19123000000000001</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="6">
         <v>0.14419499999999999</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="6">
         <v>0.15773599999999999</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="22"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="15"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -38217,33 +40153,33 @@
       <c r="B37">
         <v>7603553</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="6">
+      <c r="C37" s="33"/>
+      <c r="D37" s="3">
         <v>27</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="9">
         <v>1.0201800000000001</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="6">
         <v>0.84737399999999996</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="6">
         <v>0.77196500000000001</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="6">
         <v>0.571913</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="6">
         <v>0.61759799999999998</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="6">
         <v>0.53082799999999997</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="6">
         <v>0.444631</v>
       </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="22"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="15"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -38252,33 +40188,33 @@
       <c r="B38">
         <v>14630843</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="6">
+      <c r="C38" s="33"/>
+      <c r="D38" s="3">
         <v>28</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="9">
         <v>2.18235</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="6">
         <v>1.5915299999999999</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="6">
         <v>1.6052599999999999</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="6">
         <v>1.35242</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="6">
         <v>1.2262</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="6">
         <v>1.0626800000000001</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="6">
         <v>1.0539099999999999</v>
       </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="22"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="15"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -38287,33 +40223,33 @@
       <c r="B39">
         <v>28192750</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="6">
+      <c r="C39" s="33"/>
+      <c r="D39" s="3">
         <v>29</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="9">
         <v>4.4900399999999996</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="6">
         <v>3.2613400000000001</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="6">
         <v>3.27643</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="6">
         <v>2.7622399999999998</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="6">
         <v>2.6344099999999999</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="6">
         <v>2.3073600000000001</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="6">
         <v>2.2362500000000001</v>
       </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="22"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="15"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -38322,33 +40258,33 @@
       <c r="B40">
         <v>54400028</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="6">
+      <c r="C40" s="33"/>
+      <c r="D40" s="3">
         <v>30</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="9">
         <v>9.1802600000000005</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="6">
         <v>6.8577000000000004</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="6">
         <v>6.5335799999999997</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="6">
         <v>5.4662300000000004</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="6">
         <v>5.27027</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="6">
         <v>4.5944099999999999</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="6">
         <v>4.6783799999999998</v>
       </c>
-      <c r="L40" s="11"/>
-      <c r="M40" s="22"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="15"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -38357,33 +40293,33 @@
       <c r="B41">
         <v>105097565</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="6">
+      <c r="C41" s="33"/>
+      <c r="D41" s="3">
         <v>31</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="9">
         <v>19.215299999999999</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="6">
         <v>14.132400000000001</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="6">
         <v>13.6424</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="6">
         <v>11.2905</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="6">
         <v>10.738</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="6">
         <v>9.2602399999999996</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="6">
         <v>8.9464000000000006</v>
       </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="22"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="15"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -38392,33 +40328,33 @@
       <c r="B42">
         <v>203280221</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="6">
+      <c r="C42" s="33"/>
+      <c r="D42" s="3">
         <v>32</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="8">
         <v>39.517899999999997</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="7">
         <v>28.702400000000001</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="7">
         <v>27.303599999999999</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="7">
         <v>22.6906</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="7">
         <v>21.5733</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="7">
         <v>18.916699999999999</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="7">
         <v>18.111499999999999</v>
       </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="22"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="15"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -38427,37 +40363,37 @@
       <c r="B43">
         <v>2063689</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="33">
         <v>6</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="3">
         <v>25</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="10">
         <v>0.26127400000000001</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="5">
         <v>0.148173</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="5">
         <v>9.8404199999999997E-2</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="5">
         <v>0.11898599999999999</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="5">
         <v>0.535659</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="5">
         <v>0.33315099999999997</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="5">
         <v>0.302537</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M43" s="22"/>
+      <c r="M43" s="15"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -38466,33 +40402,33 @@
       <c r="B44">
         <v>3957809</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="6">
+      <c r="C44" s="33"/>
+      <c r="D44" s="3">
         <v>26</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="9">
         <v>0.599607</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="6">
         <v>0.35391800000000001</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="6">
         <v>0.391405</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="6">
         <v>0.30904500000000001</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="6">
         <v>0.59422699999999995</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="6">
         <v>0.32075799999999999</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="6">
         <v>0.24956999999999999</v>
       </c>
-      <c r="L44" s="11"/>
-      <c r="M44" s="22"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -38501,33 +40437,33 @@
       <c r="B45">
         <v>7603553</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="6">
+      <c r="C45" s="33"/>
+      <c r="D45" s="3">
         <v>27</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="9">
         <v>1.1478200000000001</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="6">
         <v>0.87008700000000005</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="6">
         <v>1.0357400000000001</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="6">
         <v>0.78007599999999999</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="6">
         <v>0.83038699999999999</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="6">
         <v>0.66758399999999996</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="6">
         <v>0.90395999999999999</v>
       </c>
-      <c r="L45" s="11"/>
-      <c r="M45" s="22"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="15"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -38536,33 +40472,33 @@
       <c r="B46">
         <v>14630843</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="6">
+      <c r="C46" s="33"/>
+      <c r="D46" s="3">
         <v>28</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="9">
         <v>2.3233600000000001</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="6">
         <v>1.7647900000000001</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="6">
         <v>1.7986200000000001</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="6">
         <v>1.89046</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="6">
         <v>1.7251700000000001</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="6">
         <v>1.8879300000000001</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="6">
         <v>1.6107899999999999</v>
       </c>
-      <c r="L46" s="11"/>
-      <c r="M46" s="22"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="15"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -38571,33 +40507,33 @@
       <c r="B47">
         <v>28192750</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="6">
+      <c r="C47" s="33"/>
+      <c r="D47" s="3">
         <v>29</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="9">
         <v>4.8341700000000003</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="6">
         <v>3.7568000000000001</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="6">
         <v>4.1474000000000002</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="6">
         <v>3.2907799999999998</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="6">
         <v>3.4059400000000002</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="6">
         <v>2.86897</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="6">
         <v>2.9242699999999999</v>
       </c>
-      <c r="L47" s="11"/>
-      <c r="M47" s="22"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="15"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -38606,33 +40542,33 @@
       <c r="B48">
         <v>54400028</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="6">
+      <c r="C48" s="33"/>
+      <c r="D48" s="3">
         <v>30</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="9">
         <v>9.5277600000000007</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="6">
         <v>7.1982299999999997</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="6">
         <v>7.3777999999999997</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="6">
         <v>6.50345</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="6">
         <v>6.53939</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="6">
         <v>5.8105200000000004</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48" s="6">
         <v>6.7287400000000002</v>
       </c>
-      <c r="L48" s="11"/>
-      <c r="M48" s="22"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="15"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -38641,33 +40577,33 @@
       <c r="B49">
         <v>105097565</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="6">
+      <c r="C49" s="33"/>
+      <c r="D49" s="3">
         <v>31</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="9">
         <v>19.503900000000002</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="6">
         <v>14.3207</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="6">
         <v>15.1386</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="6">
         <v>12.5236</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="6">
         <v>13.2845</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="6">
         <v>10.950900000000001</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="6">
         <v>12.064500000000001</v>
       </c>
-      <c r="L49" s="11"/>
-      <c r="M49" s="22"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="15"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -38676,33 +40612,33 @@
       <c r="B50">
         <v>203280221</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="6">
+      <c r="C50" s="33"/>
+      <c r="D50" s="3">
         <v>32</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="8">
         <v>39.595199999999998</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="7">
         <v>29.366299999999999</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="7">
         <v>30.835699999999999</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="7">
         <v>25.856400000000001</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="7">
         <v>25.6235</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="7">
         <v>22.429200000000002</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="7">
         <v>22.672699999999999</v>
       </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="22"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="15"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -38711,37 +40647,37 @@
       <c r="B51">
         <v>2063689</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="33">
         <v>7</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="3">
         <v>25</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="10">
         <v>0.58058699999999996</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="5">
         <v>0.47422300000000001</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="5">
         <v>0.77351099999999995</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="5">
         <v>0.78122899999999995</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="5">
         <v>0.67754899999999996</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="5">
         <v>0.85414500000000004</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="5">
         <v>0.63411300000000004</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M51" s="22"/>
+      <c r="M51" s="15"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -38750,33 +40686,33 @@
       <c r="B52">
         <v>3957809</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="6">
+      <c r="C52" s="33"/>
+      <c r="D52" s="3">
         <v>26</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="9">
         <v>0.92039199999999999</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="6">
         <v>0.47151399999999999</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="6">
         <v>0.84915499999999999</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="6">
         <v>0.85068600000000005</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="6">
         <v>1.57748</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="6">
         <v>0.84041699999999997</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52" s="6">
         <v>0.87782800000000005</v>
       </c>
-      <c r="L52" s="11"/>
-      <c r="M52" s="22"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="15"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -38785,33 +40721,33 @@
       <c r="B53">
         <v>7603553</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="6">
+      <c r="C53" s="33"/>
+      <c r="D53" s="3">
         <v>27</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="9">
         <v>1.80382</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="6">
         <v>1.4081900000000001</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="6">
         <v>1.7360800000000001</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="6">
         <v>1.4921800000000001</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="6">
         <v>2.0454400000000001</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="6">
         <v>2.0888300000000002</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="6">
         <v>1.8507800000000001</v>
       </c>
-      <c r="L53" s="11"/>
-      <c r="M53" s="22"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="15"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -38820,33 +40756,33 @@
       <c r="B54">
         <v>14630843</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="6">
+      <c r="C54" s="33"/>
+      <c r="D54" s="3">
         <v>28</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="9">
         <v>3.2244700000000002</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="6">
         <v>2.6124499999999999</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="6">
         <v>2.6423899999999998</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="6">
         <v>2.2356799999999999</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="6">
         <v>3.6680700000000002</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J54" s="6">
         <v>3.2841100000000001</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54" s="6">
         <v>4.2787300000000004</v>
       </c>
-      <c r="L54" s="11"/>
-      <c r="M54" s="22"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="15"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -38855,33 +40791,33 @@
       <c r="B55">
         <v>28192750</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="6">
+      <c r="C55" s="33"/>
+      <c r="D55" s="3">
         <v>29</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="9">
         <v>6.9519700000000002</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="6">
         <v>4.8930400000000001</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="6">
         <v>5.8527800000000001</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="6">
         <v>5.7847799999999996</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="6">
         <v>7.11233</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="6">
         <v>6.0623100000000001</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K55" s="6">
         <v>7.19259</v>
       </c>
-      <c r="L55" s="11"/>
-      <c r="M55" s="22"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="15"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -38890,33 +40826,33 @@
       <c r="B56">
         <v>54400028</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="6">
+      <c r="C56" s="33"/>
+      <c r="D56" s="3">
         <v>30</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="9">
         <v>11.8744</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="6">
         <v>8.8274600000000003</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="6">
         <v>12.867800000000001</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="6">
         <v>11.685</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="6">
         <v>12.515700000000001</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J56" s="6">
         <v>12.5412</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K56" s="6">
         <v>13.787699999999999</v>
       </c>
-      <c r="L56" s="11"/>
-      <c r="M56" s="22"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="15"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -38925,33 +40861,33 @@
       <c r="B57">
         <v>105097565</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="6">
+      <c r="C57" s="33"/>
+      <c r="D57" s="3">
         <v>31</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="9">
         <v>23.287700000000001</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="6">
         <v>17.535399999999999</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="6">
         <v>22.906099999999999</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="6">
         <v>20.898</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I57" s="6">
         <v>22.673100000000002</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J57" s="6">
         <v>20.448399999999999</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K57" s="6">
         <v>23.902100000000001</v>
       </c>
-      <c r="L57" s="11"/>
-      <c r="M57" s="22"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="15"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -38960,33 +40896,33 @@
       <c r="B58">
         <v>203280221</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="6">
+      <c r="C58" s="33"/>
+      <c r="D58" s="3">
         <v>32</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="8">
         <v>48.7346</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="7">
         <v>34.615000000000002</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="7">
         <v>46.294899999999998</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="7">
         <v>36.154200000000003</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="7">
         <v>40.247799999999998</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="7">
         <v>37.356000000000002</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K58" s="7">
         <v>41.323500000000003</v>
       </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="22"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="15"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -38995,37 +40931,37 @@
       <c r="B59">
         <v>2063689</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="33">
         <v>8</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="3">
         <v>25</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="10">
         <v>7.0153400000000001</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="5">
         <v>5.79291</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="5">
         <v>9.7333400000000001</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="5">
         <v>9.6582799999999995</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="5">
         <v>9.6948000000000008</v>
       </c>
-      <c r="J59" s="8">
+      <c r="J59" s="5">
         <v>10.261799999999999</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="5">
         <v>13.202999999999999</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="L59" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M59" s="22"/>
+      <c r="M59" s="15"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -39034,33 +40970,33 @@
       <c r="B60">
         <v>3957809</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="6">
+      <c r="C60" s="33"/>
+      <c r="D60" s="3">
         <v>26</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="9">
         <v>6.6866700000000003</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="6">
         <v>5.4281100000000002</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="6">
         <v>11.8489</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="6">
         <v>15.7102</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="6">
         <v>16.588200000000001</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="6">
         <v>16.337700000000002</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K60" s="6">
         <v>16.944099999999999</v>
       </c>
-      <c r="L60" s="11"/>
-      <c r="M60" s="22"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="15"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -39069,33 +41005,33 @@
       <c r="B61">
         <v>7603553</v>
       </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="6">
+      <c r="C61" s="33"/>
+      <c r="D61" s="3">
         <v>27</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="9">
         <v>13.1046</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="6">
         <v>8.1922300000000003</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="6">
         <v>15.2645</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="6">
         <v>21.011399999999998</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="6">
         <v>23.466200000000001</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J61" s="6">
         <v>20.450199999999999</v>
       </c>
-      <c r="K61" s="10">
+      <c r="K61" s="6">
         <v>26.903199999999998</v>
       </c>
-      <c r="L61" s="11"/>
-      <c r="M61" s="22"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="15"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -39104,33 +41040,33 @@
       <c r="B62">
         <v>14630843</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="6">
+      <c r="C62" s="33"/>
+      <c r="D62" s="3">
         <v>28</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="9">
         <v>18.432500000000001</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="6">
         <v>22.2834</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="6">
         <v>29.0092</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="6">
         <v>27.295999999999999</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="6">
         <v>30.967400000000001</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J62" s="6">
         <v>33.157200000000003</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K62" s="6">
         <v>36.506300000000003</v>
       </c>
-      <c r="L62" s="11"/>
-      <c r="M62" s="22"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="15"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -39139,33 +41075,33 @@
       <c r="B63">
         <v>28192750</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="6">
+      <c r="C63" s="33"/>
+      <c r="D63" s="3">
         <v>29</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="9">
         <v>26.047699999999999</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="6">
         <v>30.121300000000002</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="6">
         <v>37.387999999999998</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="6">
         <v>39.875500000000002</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="6">
         <v>48.479100000000003</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J63" s="6">
         <v>47.0854</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K63" s="6">
         <v>53.672699999999999</v>
       </c>
-      <c r="L63" s="11"/>
-      <c r="M63" s="22"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="15"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -39174,33 +41110,33 @@
       <c r="B64">
         <v>54400028</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="6">
+      <c r="C64" s="33"/>
+      <c r="D64" s="3">
         <v>30</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="9">
         <v>44.706000000000003</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="6">
         <v>45.335900000000002</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="6">
         <v>57.803400000000003</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="6">
         <v>59.433799999999998</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="6">
         <v>64.764099999999999</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64" s="6">
         <v>65.890600000000006</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K64" s="6">
         <v>75.950699999999998</v>
       </c>
-      <c r="L64" s="11"/>
-      <c r="M64" s="22"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="15"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -39209,33 +41145,33 @@
       <c r="B65">
         <v>105097565</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="6">
+      <c r="C65" s="33"/>
+      <c r="D65" s="3">
         <v>31</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="9">
         <v>67.941599999999994</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="6">
         <v>62.354199999999999</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="6">
         <v>86.144800000000004</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="6">
         <v>90.000799999999998</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="6">
         <v>97.863200000000006</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65" s="6">
         <v>100.16500000000001</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K65" s="6">
         <v>106.21599999999999</v>
       </c>
-      <c r="L65" s="11"/>
-      <c r="M65" s="22"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="15"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -39244,55 +41180,55 @@
       <c r="B66">
         <v>203280221</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="6">
+      <c r="C66" s="33"/>
+      <c r="D66" s="3">
         <v>32</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="8">
         <v>102.288</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="7">
         <v>102.77</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="7">
         <v>130.273</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="7">
         <v>136.78299999999999</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="7">
         <v>137.57499999999999</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="7">
         <v>144.839</v>
       </c>
-      <c r="K66" s="12">
+      <c r="K66" s="7">
         <v>157.44800000000001</v>
       </c>
-      <c r="L66" s="13"/>
-      <c r="M66" s="22"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="L51:L58"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="L59:L66"/>
-    <mergeCell ref="P1:V1"/>
     <mergeCell ref="W3:W10"/>
     <mergeCell ref="C27:C34"/>
     <mergeCell ref="L27:L34"/>
     <mergeCell ref="C35:C42"/>
     <mergeCell ref="L35:L42"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="L43:L50"/>
-    <mergeCell ref="E1:K1"/>
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="L11:L18"/>
     <mergeCell ref="C19:C26"/>
     <mergeCell ref="L19:L26"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="L51:L58"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="L59:L66"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="L43:L50"/>
+    <mergeCell ref="E1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39301,26 +41237,714 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4">
+        <v>11</v>
+      </c>
+      <c r="K2" s="4">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4">
+        <v>14</v>
+      </c>
+      <c r="N2" s="4">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34">
+        <v>44.7423</v>
+      </c>
+      <c r="D3" s="5">
+        <v>36.8005</v>
+      </c>
+      <c r="E3" s="5">
+        <v>32.427199999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <v>30.570499999999999</v>
+      </c>
+      <c r="G3" s="5">
+        <v>30.843299999999999</v>
+      </c>
+      <c r="H3" s="5">
+        <v>28.286999999999999</v>
+      </c>
+      <c r="I3" s="5">
+        <v>26.3337</v>
+      </c>
+      <c r="J3" s="5">
+        <v>24.573399999999999</v>
+      </c>
+      <c r="K3" s="5">
+        <v>23.0762</v>
+      </c>
+      <c r="L3" s="5">
+        <v>22.0136</v>
+      </c>
+      <c r="M3" s="5">
+        <v>20.5974</v>
+      </c>
+      <c r="N3" s="13">
+        <v>19.829000000000001</v>
+      </c>
+      <c r="O3" s="5">
+        <v>21.404599999999999</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="35">
+        <v>45.201999999999998</v>
+      </c>
+      <c r="D4" s="6">
+        <v>36.944800000000001</v>
+      </c>
+      <c r="E4" s="6">
+        <v>32.430799999999998</v>
+      </c>
+      <c r="F4" s="6">
+        <v>31.242699999999999</v>
+      </c>
+      <c r="G4" s="6">
+        <v>31.492699999999999</v>
+      </c>
+      <c r="H4" s="6">
+        <v>28.162600000000001</v>
+      </c>
+      <c r="I4" s="6">
+        <v>25.786200000000001</v>
+      </c>
+      <c r="J4" s="6">
+        <v>24.402100000000001</v>
+      </c>
+      <c r="K4" s="6">
+        <v>23.6417</v>
+      </c>
+      <c r="L4" s="6">
+        <v>21.8584</v>
+      </c>
+      <c r="M4" s="6">
+        <v>20.594799999999999</v>
+      </c>
+      <c r="N4" s="12">
+        <v>19.7088</v>
+      </c>
+      <c r="O4" s="36">
+        <v>19.156300000000002</v>
+      </c>
+      <c r="P4" s="31"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="35">
+        <v>45.876100000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>37.057299999999998</v>
+      </c>
+      <c r="E5" s="6">
+        <v>33.049799999999998</v>
+      </c>
+      <c r="F5" s="6">
+        <v>31.586200000000002</v>
+      </c>
+      <c r="G5" s="6">
+        <v>32.484400000000001</v>
+      </c>
+      <c r="H5" s="6">
+        <v>29.031500000000001</v>
+      </c>
+      <c r="I5" s="6">
+        <v>26.540299999999998</v>
+      </c>
+      <c r="J5" s="6">
+        <v>25.265499999999999</v>
+      </c>
+      <c r="K5" s="6">
+        <v>24.607099999999999</v>
+      </c>
+      <c r="L5" s="6">
+        <v>22.847799999999999</v>
+      </c>
+      <c r="M5" s="6">
+        <v>21.495200000000001</v>
+      </c>
+      <c r="N5" s="6">
+        <v>20.547899999999998</v>
+      </c>
+      <c r="O5" s="6">
+        <v>21.064599999999999</v>
+      </c>
+      <c r="P5" s="31"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="35">
+        <v>49.203099999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>40.778700000000001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>36.537199999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <v>34.634900000000002</v>
+      </c>
+      <c r="G6" s="6">
+        <v>40.265300000000003</v>
+      </c>
+      <c r="H6" s="6">
+        <v>37.310699999999997</v>
+      </c>
+      <c r="I6" s="6">
+        <v>33.480800000000002</v>
+      </c>
+      <c r="J6" s="6">
+        <v>31.864100000000001</v>
+      </c>
+      <c r="K6" s="6">
+        <v>32.857799999999997</v>
+      </c>
+      <c r="L6" s="6">
+        <v>32.754800000000003</v>
+      </c>
+      <c r="M6" s="6">
+        <v>30.144100000000002</v>
+      </c>
+      <c r="N6" s="6">
+        <v>31.1509</v>
+      </c>
+      <c r="O6" s="6">
+        <v>33.799700000000001</v>
+      </c>
+      <c r="P6" s="31"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="35">
+        <v>66.493899999999996</v>
+      </c>
+      <c r="D7" s="6">
+        <v>55.53</v>
+      </c>
+      <c r="E7" s="6">
+        <v>51.625700000000002</v>
+      </c>
+      <c r="F7" s="6">
+        <v>48.396000000000001</v>
+      </c>
+      <c r="G7" s="6">
+        <v>71.337100000000007</v>
+      </c>
+      <c r="H7" s="6">
+        <v>65.746600000000001</v>
+      </c>
+      <c r="I7" s="6">
+        <v>61.671999999999997</v>
+      </c>
+      <c r="J7" s="6">
+        <v>56.058799999999998</v>
+      </c>
+      <c r="K7" s="6">
+        <v>66.105599999999995</v>
+      </c>
+      <c r="L7" s="6">
+        <v>62.978200000000001</v>
+      </c>
+      <c r="M7" s="6">
+        <v>58.850200000000001</v>
+      </c>
+      <c r="N7" s="6">
+        <v>56.025399999999998</v>
+      </c>
+      <c r="O7" s="6">
+        <v>66.359099999999998</v>
+      </c>
+      <c r="P7" s="31"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="37">
+        <v>142.30600000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>127.09699999999999</v>
+      </c>
+      <c r="E8" s="7">
+        <v>124.875</v>
+      </c>
+      <c r="F8" s="7">
+        <v>126.229</v>
+      </c>
+      <c r="G8" s="7">
+        <v>174.45400000000001</v>
+      </c>
+      <c r="H8" s="7">
+        <v>167.47</v>
+      </c>
+      <c r="I8" s="7">
+        <v>160.61500000000001</v>
+      </c>
+      <c r="J8" s="7">
+        <v>164.251</v>
+      </c>
+      <c r="K8" s="7">
+        <v>177.60599999999999</v>
+      </c>
+      <c r="L8" s="7">
+        <v>183.95500000000001</v>
+      </c>
+      <c r="M8" s="7">
+        <v>187.67500000000001</v>
+      </c>
+      <c r="N8" s="7">
+        <v>184.36600000000001</v>
+      </c>
+      <c r="O8" s="7">
+        <v>190.35599999999999</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P3:P8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4">
+        <v>18</v>
+      </c>
+      <c r="N2" s="4">
+        <v>19</v>
+      </c>
+      <c r="O2" s="4">
+        <v>20</v>
+      </c>
+      <c r="P2" s="4">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>22</v>
+      </c>
+      <c r="R2" s="4">
+        <v>23</v>
+      </c>
+      <c r="S2" s="4">
+        <v>24</v>
+      </c>
+      <c r="T2" s="4">
+        <v>25</v>
+      </c>
+      <c r="U2" s="4">
+        <v>26</v>
+      </c>
+      <c r="V2" s="4">
+        <v>27</v>
+      </c>
+      <c r="W2" s="4">
+        <v>28</v>
+      </c>
+      <c r="X2" s="4">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34">
+        <v>54.039000000000001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>48.0182</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43.839199999999998</v>
+      </c>
+      <c r="F3" s="5">
+        <v>40.783700000000003</v>
+      </c>
+      <c r="G3" s="5">
+        <v>38.152700000000003</v>
+      </c>
+      <c r="H3" s="5">
+        <v>36.962000000000003</v>
+      </c>
+      <c r="I3" s="5">
+        <v>36.181800000000003</v>
+      </c>
+      <c r="J3" s="5">
+        <v>36.058500000000002</v>
+      </c>
+      <c r="K3" s="5">
+        <v>36.484299999999998</v>
+      </c>
+      <c r="L3" s="5">
+        <v>34.325899999999997</v>
+      </c>
+      <c r="M3" s="5">
+        <v>32.575899999999997</v>
+      </c>
+      <c r="N3" s="5">
+        <v>31.081800000000001</v>
+      </c>
+      <c r="O3" s="5">
+        <v>29.942399999999999</v>
+      </c>
+      <c r="P3" s="5">
+        <v>28.934699999999999</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>28.073799999999999</v>
+      </c>
+      <c r="R3" s="5">
+        <v>27.529299999999999</v>
+      </c>
+      <c r="S3" s="5">
+        <v>27.034199999999998</v>
+      </c>
+      <c r="T3" s="5">
+        <v>25.998200000000001</v>
+      </c>
+      <c r="U3" s="5">
+        <v>25.101400000000002</v>
+      </c>
+      <c r="V3" s="5">
+        <v>24.1844</v>
+      </c>
+      <c r="W3" s="5">
+        <v>23.575199999999999</v>
+      </c>
+      <c r="X3" s="5">
+        <v>22.964300000000001</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>22.325099999999999</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>21.993200000000002</v>
+      </c>
+      <c r="AA3" s="39">
+        <v>21.742100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="35">
+        <v>143.50800000000001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>92.516599999999997</v>
+      </c>
+      <c r="E4" s="6">
+        <v>92.098299999999995</v>
+      </c>
+      <c r="F4" s="6">
+        <v>143.566</v>
+      </c>
+      <c r="G4" s="6">
+        <v>130.85400000000001</v>
+      </c>
+      <c r="H4" s="6">
+        <v>125.249</v>
+      </c>
+      <c r="I4" s="6">
+        <v>56.719200000000001</v>
+      </c>
+      <c r="J4" s="6">
+        <v>74.163499999999999</v>
+      </c>
+      <c r="K4" s="6">
+        <v>78.116399999999999</v>
+      </c>
+      <c r="L4" s="6">
+        <v>69.412199999999999</v>
+      </c>
+      <c r="M4" s="6">
+        <v>72.528099999999995</v>
+      </c>
+      <c r="N4" s="6">
+        <v>116.947</v>
+      </c>
+      <c r="O4" s="6">
+        <v>96.012500000000003</v>
+      </c>
+      <c r="P4" s="6">
+        <v>91.208799999999997</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>101.629</v>
+      </c>
+      <c r="R4" s="6">
+        <v>99.456999999999994</v>
+      </c>
+      <c r="S4" s="6">
+        <v>89.646900000000002</v>
+      </c>
+      <c r="T4" s="6">
+        <v>61.393500000000003</v>
+      </c>
+      <c r="U4" s="6">
+        <v>74.029899999999998</v>
+      </c>
+      <c r="V4" s="6">
+        <v>60.524099999999997</v>
+      </c>
+      <c r="W4" s="6">
+        <v>60.326900000000002</v>
+      </c>
+      <c r="X4" s="6">
+        <v>82.281199999999998</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>71.286299999999997</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>68.4208</v>
+      </c>
+      <c r="AA4" s="40">
+        <v>128.63999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="37">
+        <v>251.41399999999999</v>
+      </c>
+      <c r="D5" s="7">
+        <v>245.06200000000001</v>
+      </c>
+      <c r="E5" s="7">
+        <v>282.64800000000002</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:AA1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>